--- a/app/Helpers/Excel/template/t_nyusyuko__picking_gurisuto.xlsx
+++ b/app/Helpers/Excel/template/t_nyusyuko__picking_gurisuto.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xampp-8.2\htdocs\aichi-kousoku-unyu\app\Helpers\Excel\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AICHI_KOUSOKU_UNYU\git\dev\app\Helpers\Excel\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="ピッキングリストExcel" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="打ち合わせメモ２">#REF!</definedName>
     <definedName name="打ち合わせメモ３">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -137,6 +137,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ h:mm;@"/>
+  </numFmts>
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -363,12 +366,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -396,6 +393,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -422,15 +425,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -513,10 +507,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -554,6 +554,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -843,22 +846,20 @@
   </sheetPr>
   <dimension ref="A1:CF99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="18" width="2.88671875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="4.6640625" style="3" customWidth="1"/>
-    <col min="20" max="29" width="2.88671875" style="3" customWidth="1"/>
-    <col min="30" max="30" width="2.5546875" style="3" customWidth="1"/>
-    <col min="31" max="36" width="2.88671875" style="3" customWidth="1"/>
-    <col min="37" max="37" width="3.6640625" style="3" customWidth="1"/>
-    <col min="38" max="75" width="2.88671875" style="3" customWidth="1"/>
-    <col min="76" max="78" width="2.6640625" style="3"/>
-    <col min="79" max="79" width="0.33203125" style="3" customWidth="1"/>
-    <col min="80" max="16384" width="2.6640625" style="3"/>
+    <col min="1" max="18" width="2.85546875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="4.7109375" style="3" customWidth="1"/>
+    <col min="20" max="29" width="2.85546875" style="3" customWidth="1"/>
+    <col min="30" max="30" width="2.5703125" style="3" customWidth="1"/>
+    <col min="31" max="36" width="2.85546875" style="3" customWidth="1"/>
+    <col min="37" max="37" width="3.7109375" style="3" customWidth="1"/>
+    <col min="38" max="75" width="2.85546875" style="3" customWidth="1"/>
+    <col min="76" max="78" width="2.7109375" style="3"/>
+    <col min="79" max="79" width="0.28515625" style="3" customWidth="1"/>
+    <col min="80" max="16384" width="2.7109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="14.1" customHeight="1">
@@ -879,28 +880,28 @@
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="68"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
@@ -967,26 +968,26 @@
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
@@ -1037,15 +1038,15 @@
     </row>
     <row r="3" spans="1:84" ht="14.1" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
@@ -1055,40 +1056,40 @@
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="21"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="68"/>
+      <c r="AJ3" s="68"/>
+      <c r="AK3" s="68"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="40"/>
-      <c r="AR3" s="40"/>
-      <c r="AS3" s="40"/>
-      <c r="AT3" s="40"/>
-      <c r="AU3" s="40"/>
-      <c r="AV3" s="40"/>
+      <c r="AP3" s="83"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="83"/>
+      <c r="AS3" s="83"/>
+      <c r="AT3" s="83"/>
+      <c r="AU3" s="83"/>
+      <c r="AV3" s="83"/>
       <c r="AW3"/>
-      <c r="AX3" s="41"/>
-      <c r="AY3" s="41"/>
+      <c r="AX3" s="69"/>
+      <c r="AY3" s="69"/>
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
@@ -1125,13 +1126,13 @@
     </row>
     <row r="4" spans="1:84" ht="14.1" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
@@ -1211,13 +1212,13 @@
     </row>
     <row r="5" spans="1:84" ht="14.1" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
@@ -1300,15 +1301,15 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1385,78 +1386,78 @@
     </row>
     <row r="7" spans="1:84" ht="14.1" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="73" t="s">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="82" t="s">
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="83"/>
-      <c r="U7" s="83"/>
-      <c r="V7" s="83"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="6"/>
-      <c r="Z7" s="73" t="s">
+      <c r="Z7" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="74"/>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="73" t="s">
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="73"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="AF7" s="74"/>
-      <c r="AG7" s="75"/>
-      <c r="AH7" s="73" t="s">
+      <c r="AF7" s="73"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="AI7" s="74"/>
-      <c r="AJ7" s="75"/>
-      <c r="AK7" s="73" t="s">
+      <c r="AI7" s="73"/>
+      <c r="AJ7" s="74"/>
+      <c r="AK7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="AL7" s="74"/>
-      <c r="AM7" s="75"/>
+      <c r="AL7" s="73"/>
+      <c r="AM7" s="74"/>
       <c r="AN7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AO7" s="5"/>
       <c r="AP7" s="5"/>
       <c r="AQ7" s="6"/>
-      <c r="AR7" s="73" t="s">
+      <c r="AR7" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="AS7" s="75"/>
+      <c r="AS7" s="74"/>
       <c r="AT7" s="7"/>
       <c r="AU7" s="5"/>
       <c r="AV7" s="5"/>
       <c r="AW7" s="5"/>
       <c r="AX7" s="6"/>
-      <c r="AY7" s="73" t="s">
+      <c r="AY7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="AZ7" s="74"/>
-      <c r="BA7" s="75"/>
+      <c r="AZ7" s="73"/>
+      <c r="BA7" s="74"/>
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
       <c r="BD7" s="1"/>
@@ -1491,20 +1492,20 @@
     </row>
     <row r="8" spans="1:84" ht="14.1" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="78"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="77"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1515,35 +1516,35 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="9"/>
-      <c r="Z8" s="76"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="77"/>
-      <c r="AC8" s="77"/>
-      <c r="AD8" s="78"/>
-      <c r="AE8" s="76"/>
-      <c r="AF8" s="77"/>
-      <c r="AG8" s="78"/>
-      <c r="AH8" s="76"/>
-      <c r="AI8" s="77"/>
-      <c r="AJ8" s="78"/>
-      <c r="AK8" s="76"/>
-      <c r="AL8" s="77"/>
-      <c r="AM8" s="78"/>
+      <c r="Z8" s="75"/>
+      <c r="AA8" s="76"/>
+      <c r="AB8" s="76"/>
+      <c r="AC8" s="76"/>
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="75"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="77"/>
+      <c r="AH8" s="75"/>
+      <c r="AI8" s="76"/>
+      <c r="AJ8" s="77"/>
+      <c r="AK8" s="75"/>
+      <c r="AL8" s="76"/>
+      <c r="AM8" s="77"/>
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
       <c r="AQ8" s="9"/>
       <c r="AR8" s="8"/>
       <c r="AS8" s="9"/>
-      <c r="AT8" s="76" t="s">
+      <c r="AT8" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="AU8" s="77"/>
-      <c r="AV8" s="77"/>
-      <c r="AW8" s="77"/>
-      <c r="AX8" s="78"/>
-      <c r="AY8" s="76"/>
-      <c r="AZ8" s="77"/>
-      <c r="BA8" s="78"/>
+      <c r="AU8" s="76"/>
+      <c r="AV8" s="76"/>
+      <c r="AW8" s="76"/>
+      <c r="AX8" s="77"/>
+      <c r="AY8" s="75"/>
+      <c r="AZ8" s="76"/>
+      <c r="BA8" s="77"/>
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
@@ -1592,13 +1593,13 @@
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="12"/>
-      <c r="P9" s="80" t="s">
+      <c r="P9" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="81"/>
-      <c r="T9" s="81"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
@@ -1618,19 +1619,19 @@
       <c r="AK9" s="10"/>
       <c r="AL9" s="11"/>
       <c r="AM9" s="12"/>
-      <c r="AN9" s="70" t="s">
+      <c r="AN9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AO9" s="79"/>
-      <c r="AP9" s="79"/>
-      <c r="AQ9" s="71"/>
+      <c r="AO9" s="78"/>
+      <c r="AP9" s="78"/>
+      <c r="AQ9" s="30"/>
       <c r="AR9" s="10"/>
       <c r="AS9" s="12"/>
-      <c r="AT9" s="70"/>
-      <c r="AU9" s="79"/>
-      <c r="AV9" s="79"/>
-      <c r="AW9" s="79"/>
-      <c r="AX9" s="71"/>
+      <c r="AT9" s="29"/>
+      <c r="AU9" s="78"/>
+      <c r="AV9" s="78"/>
+      <c r="AW9" s="78"/>
+      <c r="AX9" s="30"/>
       <c r="AY9" s="10"/>
       <c r="AZ9" s="11"/>
       <c r="BA9" s="12"/>
@@ -1668,15 +1669,15 @@
     </row>
     <row r="10" spans="1:84" ht="14.1" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="31"/>
       <c r="L10" s="32"/>
       <c r="M10" s="32"/>
@@ -1692,20 +1693,20 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="6"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="52"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="54"/>
-      <c r="AH10" s="61"/>
-      <c r="AI10" s="62"/>
-      <c r="AJ10" s="63"/>
-      <c r="AK10" s="61"/>
-      <c r="AL10" s="62"/>
-      <c r="AM10" s="63"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="51"/>
+      <c r="AH10" s="58"/>
+      <c r="AI10" s="59"/>
+      <c r="AJ10" s="60"/>
+      <c r="AK10" s="58"/>
+      <c r="AL10" s="59"/>
+      <c r="AM10" s="60"/>
       <c r="AN10" s="7"/>
       <c r="AO10" s="5"/>
       <c r="AP10" s="5"/>
@@ -1754,15 +1755,15 @@
     </row>
     <row r="11" spans="1:84" ht="14.1" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="27"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
       <c r="K11" s="34"/>
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
@@ -1778,20 +1779,20 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="9"/>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="55"/>
-      <c r="AF11" s="56"/>
-      <c r="AG11" s="57"/>
-      <c r="AH11" s="64"/>
-      <c r="AI11" s="65"/>
-      <c r="AJ11" s="66"/>
-      <c r="AK11" s="64"/>
-      <c r="AL11" s="65"/>
-      <c r="AM11" s="66"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="54"/>
+      <c r="AH11" s="61"/>
+      <c r="AI11" s="62"/>
+      <c r="AJ11" s="63"/>
+      <c r="AK11" s="61"/>
+      <c r="AL11" s="62"/>
+      <c r="AM11" s="63"/>
       <c r="AN11" s="8"/>
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
@@ -1840,15 +1841,15 @@
     </row>
     <row r="12" spans="1:84" ht="14.1" customHeight="1" thickBot="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="28"/>
       <c r="K12" s="37"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
@@ -1864,26 +1865,26 @@
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="12"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="60"/>
-      <c r="AH12" s="67"/>
-      <c r="AI12" s="68"/>
-      <c r="AJ12" s="69"/>
-      <c r="AK12" s="67"/>
-      <c r="AL12" s="68"/>
-      <c r="AM12" s="69"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47"/>
+      <c r="AD12" s="48"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="64"/>
+      <c r="AI12" s="65"/>
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="64"/>
+      <c r="AL12" s="65"/>
+      <c r="AM12" s="66"/>
       <c r="AN12" s="10"/>
       <c r="AO12" s="11"/>
       <c r="AP12" s="11"/>
       <c r="AQ12" s="12"/>
-      <c r="AR12" s="70"/>
-      <c r="AS12" s="71"/>
+      <c r="AR12" s="29"/>
+      <c r="AS12" s="30"/>
       <c r="AT12" s="10"/>
       <c r="AU12" s="11"/>
       <c r="AV12" s="11"/>
@@ -1926,15 +1927,15 @@
     </row>
     <row r="13" spans="1:84" s="4" customFormat="1" ht="14.1" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
       <c r="K13" s="31"/>
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
@@ -1950,20 +1951,20 @@
       <c r="W13" s="19"/>
       <c r="X13" s="19"/>
       <c r="Y13" s="6"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="53"/>
-      <c r="AG13" s="54"/>
-      <c r="AH13" s="61"/>
-      <c r="AI13" s="62"/>
-      <c r="AJ13" s="63"/>
-      <c r="AK13" s="61"/>
-      <c r="AL13" s="62"/>
-      <c r="AM13" s="63"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="58"/>
+      <c r="AI13" s="59"/>
+      <c r="AJ13" s="60"/>
+      <c r="AK13" s="58"/>
+      <c r="AL13" s="59"/>
+      <c r="AM13" s="60"/>
       <c r="AN13" s="18"/>
       <c r="AO13" s="19"/>
       <c r="AP13" s="19"/>
@@ -2012,15 +2013,15 @@
     </row>
     <row r="14" spans="1:84" s="4" customFormat="1" ht="14.1" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
       <c r="K14" s="34"/>
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
@@ -2036,20 +2037,20 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="9"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="55"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="57"/>
-      <c r="AH14" s="64"/>
-      <c r="AI14" s="65"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="64"/>
-      <c r="AL14" s="65"/>
-      <c r="AM14" s="66"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="54"/>
+      <c r="AH14" s="61"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="63"/>
+      <c r="AK14" s="61"/>
+      <c r="AL14" s="62"/>
+      <c r="AM14" s="63"/>
       <c r="AN14" s="8"/>
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
@@ -2098,15 +2099,15 @@
     </row>
     <row r="15" spans="1:84" s="4" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="28"/>
       <c r="K15" s="37"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
@@ -2122,26 +2123,26 @@
       <c r="W15" s="17"/>
       <c r="X15" s="17"/>
       <c r="Y15" s="12"/>
-      <c r="Z15" s="49"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="51"/>
-      <c r="AE15" s="58"/>
-      <c r="AF15" s="59"/>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="67"/>
-      <c r="AI15" s="68"/>
-      <c r="AJ15" s="69"/>
-      <c r="AK15" s="67"/>
-      <c r="AL15" s="68"/>
-      <c r="AM15" s="69"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="48"/>
+      <c r="AE15" s="55"/>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="57"/>
+      <c r="AH15" s="64"/>
+      <c r="AI15" s="65"/>
+      <c r="AJ15" s="66"/>
+      <c r="AK15" s="64"/>
+      <c r="AL15" s="65"/>
+      <c r="AM15" s="66"/>
       <c r="AN15" s="16"/>
       <c r="AO15" s="17"/>
       <c r="AP15" s="17"/>
       <c r="AQ15" s="12"/>
-      <c r="AR15" s="70"/>
-      <c r="AS15" s="71"/>
+      <c r="AR15" s="29"/>
+      <c r="AS15" s="30"/>
       <c r="AT15" s="16"/>
       <c r="AU15" s="17"/>
       <c r="AV15" s="17"/>
@@ -2184,15 +2185,15 @@
     </row>
     <row r="16" spans="1:84" ht="14.1" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
       <c r="K16" s="31"/>
       <c r="L16" s="32"/>
       <c r="M16" s="32"/>
@@ -2208,20 +2209,20 @@
       <c r="W16" s="19"/>
       <c r="X16" s="19"/>
       <c r="Y16" s="6"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="44"/>
-      <c r="AC16" s="44"/>
-      <c r="AD16" s="45"/>
-      <c r="AE16" s="52"/>
-      <c r="AF16" s="53"/>
-      <c r="AG16" s="54"/>
-      <c r="AH16" s="61"/>
-      <c r="AI16" s="62"/>
-      <c r="AJ16" s="63"/>
-      <c r="AK16" s="61"/>
-      <c r="AL16" s="62"/>
-      <c r="AM16" s="63"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="49"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="58"/>
+      <c r="AI16" s="59"/>
+      <c r="AJ16" s="60"/>
+      <c r="AK16" s="58"/>
+      <c r="AL16" s="59"/>
+      <c r="AM16" s="60"/>
       <c r="AN16" s="18"/>
       <c r="AO16" s="19"/>
       <c r="AP16" s="19"/>
@@ -2270,15 +2271,15 @@
     </row>
     <row r="17" spans="1:84" ht="14.1" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="27"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
       <c r="K17" s="34"/>
       <c r="L17" s="35"/>
       <c r="M17" s="35"/>
@@ -2294,20 +2295,20 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="9"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="55"/>
-      <c r="AF17" s="56"/>
-      <c r="AG17" s="57"/>
-      <c r="AH17" s="64"/>
-      <c r="AI17" s="65"/>
-      <c r="AJ17" s="66"/>
-      <c r="AK17" s="64"/>
-      <c r="AL17" s="65"/>
-      <c r="AM17" s="66"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="45"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="53"/>
+      <c r="AG17" s="54"/>
+      <c r="AH17" s="61"/>
+      <c r="AI17" s="62"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="61"/>
+      <c r="AL17" s="62"/>
+      <c r="AM17" s="63"/>
       <c r="AN17" s="8"/>
       <c r="AO17" s="1"/>
       <c r="AP17" s="1"/>
@@ -2356,15 +2357,15 @@
     </row>
     <row r="18" spans="1:84" ht="14.1" customHeight="1" thickBot="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="28"/>
       <c r="K18" s="37"/>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
@@ -2380,26 +2381,26 @@
       <c r="W18" s="17"/>
       <c r="X18" s="17"/>
       <c r="Y18" s="12"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="51"/>
-      <c r="AE18" s="58"/>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="60"/>
-      <c r="AH18" s="67"/>
-      <c r="AI18" s="68"/>
-      <c r="AJ18" s="69"/>
-      <c r="AK18" s="67"/>
-      <c r="AL18" s="68"/>
-      <c r="AM18" s="69"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="47"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="48"/>
+      <c r="AE18" s="55"/>
+      <c r="AF18" s="56"/>
+      <c r="AG18" s="57"/>
+      <c r="AH18" s="64"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="66"/>
+      <c r="AK18" s="64"/>
+      <c r="AL18" s="65"/>
+      <c r="AM18" s="66"/>
       <c r="AN18" s="16"/>
       <c r="AO18" s="17"/>
       <c r="AP18" s="17"/>
       <c r="AQ18" s="12"/>
-      <c r="AR18" s="70"/>
-      <c r="AS18" s="71"/>
+      <c r="AR18" s="29"/>
+      <c r="AS18" s="30"/>
       <c r="AT18" s="16"/>
       <c r="AU18" s="17"/>
       <c r="AV18" s="17"/>
@@ -2442,15 +2443,15 @@
     </row>
     <row r="19" spans="1:84" ht="14.1" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="22"/>
       <c r="K19" s="31"/>
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
@@ -2466,20 +2467,20 @@
       <c r="W19" s="19"/>
       <c r="X19" s="19"/>
       <c r="Y19" s="6"/>
-      <c r="Z19" s="43"/>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="44"/>
-      <c r="AC19" s="44"/>
-      <c r="AD19" s="45"/>
-      <c r="AE19" s="52"/>
-      <c r="AF19" s="53"/>
-      <c r="AG19" s="54"/>
-      <c r="AH19" s="61"/>
-      <c r="AI19" s="62"/>
-      <c r="AJ19" s="63"/>
-      <c r="AK19" s="61"/>
-      <c r="AL19" s="62"/>
-      <c r="AM19" s="63"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="41"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="49"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="58"/>
+      <c r="AI19" s="59"/>
+      <c r="AJ19" s="60"/>
+      <c r="AK19" s="58"/>
+      <c r="AL19" s="59"/>
+      <c r="AM19" s="60"/>
       <c r="AN19" s="18"/>
       <c r="AO19" s="19"/>
       <c r="AP19" s="19"/>
@@ -2528,15 +2529,15 @@
     </row>
     <row r="20" spans="1:84" ht="14.1" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="27"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
       <c r="K20" s="34"/>
       <c r="L20" s="35"/>
       <c r="M20" s="35"/>
@@ -2552,20 +2553,20 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="9"/>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="55"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="57"/>
-      <c r="AH20" s="64"/>
-      <c r="AI20" s="65"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="64"/>
-      <c r="AL20" s="65"/>
-      <c r="AM20" s="66"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="45"/>
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="53"/>
+      <c r="AG20" s="54"/>
+      <c r="AH20" s="61"/>
+      <c r="AI20" s="62"/>
+      <c r="AJ20" s="63"/>
+      <c r="AK20" s="61"/>
+      <c r="AL20" s="62"/>
+      <c r="AM20" s="63"/>
       <c r="AN20" s="8"/>
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
@@ -2614,15 +2615,15 @@
     </row>
     <row r="21" spans="1:84" ht="14.1" customHeight="1" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
       <c r="K21" s="37"/>
       <c r="L21" s="38"/>
       <c r="M21" s="38"/>
@@ -2638,26 +2639,26 @@
       <c r="W21" s="17"/>
       <c r="X21" s="17"/>
       <c r="Y21" s="12"/>
-      <c r="Z21" s="49"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="58"/>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="60"/>
-      <c r="AH21" s="67"/>
-      <c r="AI21" s="68"/>
-      <c r="AJ21" s="69"/>
-      <c r="AK21" s="67"/>
-      <c r="AL21" s="68"/>
-      <c r="AM21" s="69"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="55"/>
+      <c r="AF21" s="56"/>
+      <c r="AG21" s="57"/>
+      <c r="AH21" s="64"/>
+      <c r="AI21" s="65"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="64"/>
+      <c r="AL21" s="65"/>
+      <c r="AM21" s="66"/>
       <c r="AN21" s="16"/>
       <c r="AO21" s="17"/>
       <c r="AP21" s="17"/>
       <c r="AQ21" s="12"/>
-      <c r="AR21" s="70"/>
-      <c r="AS21" s="71"/>
+      <c r="AR21" s="29"/>
+      <c r="AS21" s="30"/>
       <c r="AT21" s="16"/>
       <c r="AU21" s="17"/>
       <c r="AV21" s="17"/>
@@ -2700,15 +2701,15 @@
     </row>
     <row r="22" spans="1:84" ht="14.1" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="22"/>
       <c r="K22" s="31"/>
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
@@ -2724,20 +2725,20 @@
       <c r="W22" s="19"/>
       <c r="X22" s="19"/>
       <c r="Y22" s="6"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="52"/>
-      <c r="AF22" s="53"/>
-      <c r="AG22" s="54"/>
-      <c r="AH22" s="61"/>
-      <c r="AI22" s="62"/>
-      <c r="AJ22" s="63"/>
-      <c r="AK22" s="61"/>
-      <c r="AL22" s="62"/>
-      <c r="AM22" s="63"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="49"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="51"/>
+      <c r="AH22" s="58"/>
+      <c r="AI22" s="59"/>
+      <c r="AJ22" s="60"/>
+      <c r="AK22" s="58"/>
+      <c r="AL22" s="59"/>
+      <c r="AM22" s="60"/>
       <c r="AN22" s="18"/>
       <c r="AO22" s="19"/>
       <c r="AP22" s="19"/>
@@ -2786,15 +2787,15 @@
     </row>
     <row r="23" spans="1:84" ht="14.1" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="27"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="25"/>
       <c r="K23" s="34"/>
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
@@ -2810,20 +2811,20 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="9"/>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="48"/>
-      <c r="AE23" s="55"/>
-      <c r="AF23" s="56"/>
-      <c r="AG23" s="57"/>
-      <c r="AH23" s="64"/>
-      <c r="AI23" s="65"/>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="64"/>
-      <c r="AL23" s="65"/>
-      <c r="AM23" s="66"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="52"/>
+      <c r="AF23" s="53"/>
+      <c r="AG23" s="54"/>
+      <c r="AH23" s="61"/>
+      <c r="AI23" s="62"/>
+      <c r="AJ23" s="63"/>
+      <c r="AK23" s="61"/>
+      <c r="AL23" s="62"/>
+      <c r="AM23" s="63"/>
       <c r="AN23" s="8"/>
       <c r="AO23" s="1"/>
       <c r="AP23" s="1"/>
@@ -2872,15 +2873,15 @@
     </row>
     <row r="24" spans="1:84" ht="14.1" customHeight="1" thickBot="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="30"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="28"/>
       <c r="K24" s="37"/>
       <c r="L24" s="38"/>
       <c r="M24" s="38"/>
@@ -2896,26 +2897,26 @@
       <c r="W24" s="17"/>
       <c r="X24" s="17"/>
       <c r="Y24" s="12"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="58"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="60"/>
-      <c r="AH24" s="67"/>
-      <c r="AI24" s="68"/>
-      <c r="AJ24" s="69"/>
-      <c r="AK24" s="67"/>
-      <c r="AL24" s="68"/>
-      <c r="AM24" s="69"/>
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="47"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="48"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="56"/>
+      <c r="AG24" s="57"/>
+      <c r="AH24" s="64"/>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="66"/>
+      <c r="AK24" s="64"/>
+      <c r="AL24" s="65"/>
+      <c r="AM24" s="66"/>
       <c r="AN24" s="16"/>
       <c r="AO24" s="17"/>
       <c r="AP24" s="17"/>
       <c r="AQ24" s="12"/>
-      <c r="AR24" s="70"/>
-      <c r="AS24" s="71"/>
+      <c r="AR24" s="29"/>
+      <c r="AS24" s="30"/>
       <c r="AT24" s="16"/>
       <c r="AU24" s="17"/>
       <c r="AV24" s="17"/>
@@ -2958,15 +2959,15 @@
     </row>
     <row r="25" spans="1:84" ht="14.1" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="24"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="22"/>
       <c r="K25" s="31"/>
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
@@ -2982,20 +2983,20 @@
       <c r="W25" s="19"/>
       <c r="X25" s="19"/>
       <c r="Y25" s="6"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="45"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="53"/>
-      <c r="AG25" s="54"/>
-      <c r="AH25" s="61"/>
-      <c r="AI25" s="62"/>
-      <c r="AJ25" s="63"/>
-      <c r="AK25" s="61"/>
-      <c r="AL25" s="62"/>
-      <c r="AM25" s="63"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="41"/>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="41"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="49"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="51"/>
+      <c r="AH25" s="58"/>
+      <c r="AI25" s="59"/>
+      <c r="AJ25" s="60"/>
+      <c r="AK25" s="58"/>
+      <c r="AL25" s="59"/>
+      <c r="AM25" s="60"/>
       <c r="AN25" s="18"/>
       <c r="AO25" s="19"/>
       <c r="AP25" s="19"/>
@@ -3044,15 +3045,15 @@
     </row>
     <row r="26" spans="1:84" ht="14.1" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="27"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="25"/>
       <c r="K26" s="34"/>
       <c r="L26" s="35"/>
       <c r="M26" s="35"/>
@@ -3068,20 +3069,20 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="9"/>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="47"/>
-      <c r="AB26" s="47"/>
-      <c r="AC26" s="47"/>
-      <c r="AD26" s="48"/>
-      <c r="AE26" s="55"/>
-      <c r="AF26" s="56"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="64"/>
-      <c r="AI26" s="65"/>
-      <c r="AJ26" s="66"/>
-      <c r="AK26" s="64"/>
-      <c r="AL26" s="65"/>
-      <c r="AM26" s="66"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="45"/>
+      <c r="AE26" s="52"/>
+      <c r="AF26" s="53"/>
+      <c r="AG26" s="54"/>
+      <c r="AH26" s="61"/>
+      <c r="AI26" s="62"/>
+      <c r="AJ26" s="63"/>
+      <c r="AK26" s="61"/>
+      <c r="AL26" s="62"/>
+      <c r="AM26" s="63"/>
       <c r="AN26" s="8"/>
       <c r="AO26" s="1"/>
       <c r="AP26" s="1"/>
@@ -3130,15 +3131,15 @@
     </row>
     <row r="27" spans="1:84" ht="14.1" customHeight="1" thickBot="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="30"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="28"/>
       <c r="K27" s="37"/>
       <c r="L27" s="38"/>
       <c r="M27" s="38"/>
@@ -3154,26 +3155,26 @@
       <c r="W27" s="17"/>
       <c r="X27" s="17"/>
       <c r="Y27" s="12"/>
-      <c r="Z27" s="49"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="50"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="51"/>
-      <c r="AE27" s="58"/>
-      <c r="AF27" s="59"/>
-      <c r="AG27" s="60"/>
-      <c r="AH27" s="67"/>
-      <c r="AI27" s="68"/>
-      <c r="AJ27" s="69"/>
-      <c r="AK27" s="67"/>
-      <c r="AL27" s="68"/>
-      <c r="AM27" s="69"/>
+      <c r="Z27" s="46"/>
+      <c r="AA27" s="47"/>
+      <c r="AB27" s="47"/>
+      <c r="AC27" s="47"/>
+      <c r="AD27" s="48"/>
+      <c r="AE27" s="55"/>
+      <c r="AF27" s="56"/>
+      <c r="AG27" s="57"/>
+      <c r="AH27" s="64"/>
+      <c r="AI27" s="65"/>
+      <c r="AJ27" s="66"/>
+      <c r="AK27" s="64"/>
+      <c r="AL27" s="65"/>
+      <c r="AM27" s="66"/>
       <c r="AN27" s="16"/>
       <c r="AO27" s="17"/>
       <c r="AP27" s="17"/>
       <c r="AQ27" s="12"/>
-      <c r="AR27" s="70"/>
-      <c r="AS27" s="71"/>
+      <c r="AR27" s="29"/>
+      <c r="AS27" s="30"/>
       <c r="AT27" s="16"/>
       <c r="AU27" s="17"/>
       <c r="AV27" s="17"/>
@@ -3216,15 +3217,15 @@
     </row>
     <row r="28" spans="1:84" ht="14.1" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="24"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="22"/>
       <c r="K28" s="31"/>
       <c r="L28" s="32"/>
       <c r="M28" s="32"/>
@@ -3240,20 +3241,20 @@
       <c r="W28" s="19"/>
       <c r="X28" s="19"/>
       <c r="Y28" s="6"/>
-      <c r="Z28" s="43"/>
-      <c r="AA28" s="44"/>
-      <c r="AB28" s="44"/>
-      <c r="AC28" s="44"/>
-      <c r="AD28" s="45"/>
-      <c r="AE28" s="52"/>
-      <c r="AF28" s="53"/>
-      <c r="AG28" s="54"/>
-      <c r="AH28" s="61"/>
-      <c r="AI28" s="62"/>
-      <c r="AJ28" s="63"/>
-      <c r="AK28" s="61"/>
-      <c r="AL28" s="62"/>
-      <c r="AM28" s="63"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="41"/>
+      <c r="AB28" s="41"/>
+      <c r="AC28" s="41"/>
+      <c r="AD28" s="42"/>
+      <c r="AE28" s="49"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="51"/>
+      <c r="AH28" s="58"/>
+      <c r="AI28" s="59"/>
+      <c r="AJ28" s="60"/>
+      <c r="AK28" s="58"/>
+      <c r="AL28" s="59"/>
+      <c r="AM28" s="60"/>
       <c r="AN28" s="18"/>
       <c r="AO28" s="19"/>
       <c r="AP28" s="19"/>
@@ -3302,15 +3303,15 @@
     </row>
     <row r="29" spans="1:84" ht="14.1" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="27"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="25"/>
       <c r="K29" s="34"/>
       <c r="L29" s="35"/>
       <c r="M29" s="35"/>
@@ -3326,20 +3327,20 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="9"/>
-      <c r="Z29" s="46"/>
-      <c r="AA29" s="47"/>
-      <c r="AB29" s="47"/>
-      <c r="AC29" s="47"/>
-      <c r="AD29" s="48"/>
-      <c r="AE29" s="55"/>
-      <c r="AF29" s="56"/>
-      <c r="AG29" s="57"/>
-      <c r="AH29" s="64"/>
-      <c r="AI29" s="65"/>
-      <c r="AJ29" s="66"/>
-      <c r="AK29" s="64"/>
-      <c r="AL29" s="65"/>
-      <c r="AM29" s="66"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="44"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="45"/>
+      <c r="AE29" s="52"/>
+      <c r="AF29" s="53"/>
+      <c r="AG29" s="54"/>
+      <c r="AH29" s="61"/>
+      <c r="AI29" s="62"/>
+      <c r="AJ29" s="63"/>
+      <c r="AK29" s="61"/>
+      <c r="AL29" s="62"/>
+      <c r="AM29" s="63"/>
       <c r="AN29" s="8"/>
       <c r="AO29" s="1"/>
       <c r="AP29" s="1"/>
@@ -3388,15 +3389,15 @@
     </row>
     <row r="30" spans="1:84" ht="14.1" customHeight="1" thickBot="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="30"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="28"/>
       <c r="K30" s="37"/>
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
@@ -3412,26 +3413,26 @@
       <c r="W30" s="17"/>
       <c r="X30" s="17"/>
       <c r="Y30" s="12"/>
-      <c r="Z30" s="49"/>
-      <c r="AA30" s="50"/>
-      <c r="AB30" s="50"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="58"/>
-      <c r="AF30" s="59"/>
-      <c r="AG30" s="60"/>
-      <c r="AH30" s="67"/>
-      <c r="AI30" s="68"/>
-      <c r="AJ30" s="69"/>
-      <c r="AK30" s="67"/>
-      <c r="AL30" s="68"/>
-      <c r="AM30" s="69"/>
+      <c r="Z30" s="46"/>
+      <c r="AA30" s="47"/>
+      <c r="AB30" s="47"/>
+      <c r="AC30" s="47"/>
+      <c r="AD30" s="48"/>
+      <c r="AE30" s="55"/>
+      <c r="AF30" s="56"/>
+      <c r="AG30" s="57"/>
+      <c r="AH30" s="64"/>
+      <c r="AI30" s="65"/>
+      <c r="AJ30" s="66"/>
+      <c r="AK30" s="64"/>
+      <c r="AL30" s="65"/>
+      <c r="AM30" s="66"/>
       <c r="AN30" s="16"/>
       <c r="AO30" s="17"/>
       <c r="AP30" s="17"/>
       <c r="AQ30" s="12"/>
-      <c r="AR30" s="70"/>
-      <c r="AS30" s="71"/>
+      <c r="AR30" s="29"/>
+      <c r="AS30" s="30"/>
       <c r="AT30" s="16"/>
       <c r="AU30" s="17"/>
       <c r="AV30" s="17"/>
@@ -3474,15 +3475,15 @@
     </row>
     <row r="31" spans="1:84" ht="14.1" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="24"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="22"/>
       <c r="K31" s="31"/>
       <c r="L31" s="32"/>
       <c r="M31" s="32"/>
@@ -3498,20 +3499,20 @@
       <c r="W31" s="19"/>
       <c r="X31" s="19"/>
       <c r="Y31" s="6"/>
-      <c r="Z31" s="43"/>
-      <c r="AA31" s="44"/>
-      <c r="AB31" s="44"/>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="45"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="53"/>
-      <c r="AG31" s="54"/>
-      <c r="AH31" s="61"/>
-      <c r="AI31" s="62"/>
-      <c r="AJ31" s="63"/>
-      <c r="AK31" s="61"/>
-      <c r="AL31" s="62"/>
-      <c r="AM31" s="63"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="41"/>
+      <c r="AB31" s="41"/>
+      <c r="AC31" s="41"/>
+      <c r="AD31" s="42"/>
+      <c r="AE31" s="49"/>
+      <c r="AF31" s="50"/>
+      <c r="AG31" s="51"/>
+      <c r="AH31" s="58"/>
+      <c r="AI31" s="59"/>
+      <c r="AJ31" s="60"/>
+      <c r="AK31" s="58"/>
+      <c r="AL31" s="59"/>
+      <c r="AM31" s="60"/>
       <c r="AN31" s="18"/>
       <c r="AO31" s="19"/>
       <c r="AP31" s="19"/>
@@ -3560,15 +3561,15 @@
     </row>
     <row r="32" spans="1:84" ht="14.1" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="27"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="25"/>
       <c r="K32" s="34"/>
       <c r="L32" s="35"/>
       <c r="M32" s="35"/>
@@ -3584,20 +3585,20 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="9"/>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="47"/>
-      <c r="AB32" s="47"/>
-      <c r="AC32" s="47"/>
-      <c r="AD32" s="48"/>
-      <c r="AE32" s="55"/>
-      <c r="AF32" s="56"/>
-      <c r="AG32" s="57"/>
-      <c r="AH32" s="64"/>
-      <c r="AI32" s="65"/>
-      <c r="AJ32" s="66"/>
-      <c r="AK32" s="64"/>
-      <c r="AL32" s="65"/>
-      <c r="AM32" s="66"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="44"/>
+      <c r="AB32" s="44"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="45"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="53"/>
+      <c r="AG32" s="54"/>
+      <c r="AH32" s="61"/>
+      <c r="AI32" s="62"/>
+      <c r="AJ32" s="63"/>
+      <c r="AK32" s="61"/>
+      <c r="AL32" s="62"/>
+      <c r="AM32" s="63"/>
       <c r="AN32" s="8"/>
       <c r="AO32" s="1"/>
       <c r="AP32" s="1"/>
@@ -3646,15 +3647,15 @@
     </row>
     <row r="33" spans="1:84" ht="14.1" customHeight="1" thickBot="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="30"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="28"/>
       <c r="K33" s="37"/>
       <c r="L33" s="38"/>
       <c r="M33" s="38"/>
@@ -3670,26 +3671,26 @@
       <c r="W33" s="17"/>
       <c r="X33" s="17"/>
       <c r="Y33" s="12"/>
-      <c r="Z33" s="49"/>
-      <c r="AA33" s="50"/>
-      <c r="AB33" s="50"/>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="51"/>
-      <c r="AE33" s="58"/>
-      <c r="AF33" s="59"/>
-      <c r="AG33" s="60"/>
-      <c r="AH33" s="67"/>
-      <c r="AI33" s="68"/>
-      <c r="AJ33" s="69"/>
-      <c r="AK33" s="67"/>
-      <c r="AL33" s="68"/>
-      <c r="AM33" s="69"/>
+      <c r="Z33" s="46"/>
+      <c r="AA33" s="47"/>
+      <c r="AB33" s="47"/>
+      <c r="AC33" s="47"/>
+      <c r="AD33" s="48"/>
+      <c r="AE33" s="55"/>
+      <c r="AF33" s="56"/>
+      <c r="AG33" s="57"/>
+      <c r="AH33" s="64"/>
+      <c r="AI33" s="65"/>
+      <c r="AJ33" s="66"/>
+      <c r="AK33" s="64"/>
+      <c r="AL33" s="65"/>
+      <c r="AM33" s="66"/>
       <c r="AN33" s="16"/>
       <c r="AO33" s="17"/>
       <c r="AP33" s="17"/>
       <c r="AQ33" s="12"/>
-      <c r="AR33" s="70"/>
-      <c r="AS33" s="71"/>
+      <c r="AR33" s="29"/>
+      <c r="AS33" s="30"/>
       <c r="AT33" s="16"/>
       <c r="AU33" s="17"/>
       <c r="AV33" s="17"/>
@@ -3732,15 +3733,15 @@
     </row>
     <row r="34" spans="1:84" ht="14.1" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="24"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="22"/>
       <c r="K34" s="31"/>
       <c r="L34" s="32"/>
       <c r="M34" s="32"/>
@@ -3756,20 +3757,20 @@
       <c r="W34" s="19"/>
       <c r="X34" s="19"/>
       <c r="Y34" s="6"/>
-      <c r="Z34" s="43"/>
-      <c r="AA34" s="44"/>
-      <c r="AB34" s="44"/>
-      <c r="AC34" s="44"/>
-      <c r="AD34" s="45"/>
-      <c r="AE34" s="52"/>
-      <c r="AF34" s="53"/>
-      <c r="AG34" s="54"/>
-      <c r="AH34" s="61"/>
-      <c r="AI34" s="62"/>
-      <c r="AJ34" s="63"/>
-      <c r="AK34" s="61"/>
-      <c r="AL34" s="62"/>
-      <c r="AM34" s="63"/>
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="41"/>
+      <c r="AB34" s="41"/>
+      <c r="AC34" s="41"/>
+      <c r="AD34" s="42"/>
+      <c r="AE34" s="49"/>
+      <c r="AF34" s="50"/>
+      <c r="AG34" s="51"/>
+      <c r="AH34" s="58"/>
+      <c r="AI34" s="59"/>
+      <c r="AJ34" s="60"/>
+      <c r="AK34" s="58"/>
+      <c r="AL34" s="59"/>
+      <c r="AM34" s="60"/>
       <c r="AN34" s="18"/>
       <c r="AO34" s="19"/>
       <c r="AP34" s="19"/>
@@ -3818,15 +3819,15 @@
     </row>
     <row r="35" spans="1:84" ht="14.1" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="27"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="25"/>
       <c r="K35" s="34"/>
       <c r="L35" s="35"/>
       <c r="M35" s="35"/>
@@ -3842,20 +3843,20 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="9"/>
-      <c r="Z35" s="46"/>
-      <c r="AA35" s="47"/>
-      <c r="AB35" s="47"/>
-      <c r="AC35" s="47"/>
-      <c r="AD35" s="48"/>
-      <c r="AE35" s="55"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="57"/>
-      <c r="AH35" s="64"/>
-      <c r="AI35" s="65"/>
-      <c r="AJ35" s="66"/>
-      <c r="AK35" s="64"/>
-      <c r="AL35" s="65"/>
-      <c r="AM35" s="66"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="44"/>
+      <c r="AB35" s="44"/>
+      <c r="AC35" s="44"/>
+      <c r="AD35" s="45"/>
+      <c r="AE35" s="52"/>
+      <c r="AF35" s="53"/>
+      <c r="AG35" s="54"/>
+      <c r="AH35" s="61"/>
+      <c r="AI35" s="62"/>
+      <c r="AJ35" s="63"/>
+      <c r="AK35" s="61"/>
+      <c r="AL35" s="62"/>
+      <c r="AM35" s="63"/>
       <c r="AN35" s="8"/>
       <c r="AO35" s="1"/>
       <c r="AP35" s="1"/>
@@ -3904,15 +3905,15 @@
     </row>
     <row r="36" spans="1:84" ht="14.1" customHeight="1" thickBot="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="30"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="28"/>
       <c r="K36" s="37"/>
       <c r="L36" s="38"/>
       <c r="M36" s="38"/>
@@ -3928,26 +3929,26 @@
       <c r="W36" s="17"/>
       <c r="X36" s="17"/>
       <c r="Y36" s="12"/>
-      <c r="Z36" s="49"/>
-      <c r="AA36" s="50"/>
-      <c r="AB36" s="50"/>
-      <c r="AC36" s="50"/>
-      <c r="AD36" s="51"/>
-      <c r="AE36" s="58"/>
-      <c r="AF36" s="59"/>
-      <c r="AG36" s="60"/>
-      <c r="AH36" s="67"/>
-      <c r="AI36" s="68"/>
-      <c r="AJ36" s="69"/>
-      <c r="AK36" s="67"/>
-      <c r="AL36" s="68"/>
-      <c r="AM36" s="69"/>
+      <c r="Z36" s="46"/>
+      <c r="AA36" s="47"/>
+      <c r="AB36" s="47"/>
+      <c r="AC36" s="47"/>
+      <c r="AD36" s="48"/>
+      <c r="AE36" s="55"/>
+      <c r="AF36" s="56"/>
+      <c r="AG36" s="57"/>
+      <c r="AH36" s="64"/>
+      <c r="AI36" s="65"/>
+      <c r="AJ36" s="66"/>
+      <c r="AK36" s="64"/>
+      <c r="AL36" s="65"/>
+      <c r="AM36" s="66"/>
       <c r="AN36" s="16"/>
       <c r="AO36" s="17"/>
       <c r="AP36" s="17"/>
       <c r="AQ36" s="12"/>
-      <c r="AR36" s="70"/>
-      <c r="AS36" s="71"/>
+      <c r="AR36" s="29"/>
+      <c r="AS36" s="30"/>
       <c r="AT36" s="16"/>
       <c r="AU36" s="17"/>
       <c r="AV36" s="17"/>
@@ -3990,15 +3991,15 @@
     </row>
     <row r="37" spans="1:84" s="14" customFormat="1" ht="14.1" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="24"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="22"/>
       <c r="K37" s="31"/>
       <c r="L37" s="32"/>
       <c r="M37" s="32"/>
@@ -4014,20 +4015,20 @@
       <c r="W37" s="19"/>
       <c r="X37" s="19"/>
       <c r="Y37" s="6"/>
-      <c r="Z37" s="43"/>
-      <c r="AA37" s="44"/>
-      <c r="AB37" s="44"/>
-      <c r="AC37" s="44"/>
-      <c r="AD37" s="45"/>
-      <c r="AE37" s="52"/>
-      <c r="AF37" s="53"/>
-      <c r="AG37" s="54"/>
-      <c r="AH37" s="61"/>
-      <c r="AI37" s="62"/>
-      <c r="AJ37" s="63"/>
-      <c r="AK37" s="61"/>
-      <c r="AL37" s="62"/>
-      <c r="AM37" s="63"/>
+      <c r="Z37" s="40"/>
+      <c r="AA37" s="41"/>
+      <c r="AB37" s="41"/>
+      <c r="AC37" s="41"/>
+      <c r="AD37" s="42"/>
+      <c r="AE37" s="49"/>
+      <c r="AF37" s="50"/>
+      <c r="AG37" s="51"/>
+      <c r="AH37" s="58"/>
+      <c r="AI37" s="59"/>
+      <c r="AJ37" s="60"/>
+      <c r="AK37" s="58"/>
+      <c r="AL37" s="59"/>
+      <c r="AM37" s="60"/>
       <c r="AN37" s="18"/>
       <c r="AO37" s="19"/>
       <c r="AP37" s="19"/>
@@ -4075,15 +4076,15 @@
       <c r="CF37" s="1"/>
     </row>
     <row r="38" spans="1:84" ht="14.1" customHeight="1">
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="27"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="25"/>
       <c r="K38" s="34"/>
       <c r="L38" s="35"/>
       <c r="M38" s="35"/>
@@ -4099,20 +4100,20 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="9"/>
-      <c r="Z38" s="46"/>
-      <c r="AA38" s="47"/>
-      <c r="AB38" s="47"/>
-      <c r="AC38" s="47"/>
-      <c r="AD38" s="48"/>
-      <c r="AE38" s="55"/>
-      <c r="AF38" s="56"/>
-      <c r="AG38" s="57"/>
-      <c r="AH38" s="64"/>
-      <c r="AI38" s="65"/>
-      <c r="AJ38" s="66"/>
-      <c r="AK38" s="64"/>
-      <c r="AL38" s="65"/>
-      <c r="AM38" s="66"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="44"/>
+      <c r="AB38" s="44"/>
+      <c r="AC38" s="44"/>
+      <c r="AD38" s="45"/>
+      <c r="AE38" s="52"/>
+      <c r="AF38" s="53"/>
+      <c r="AG38" s="54"/>
+      <c r="AH38" s="61"/>
+      <c r="AI38" s="62"/>
+      <c r="AJ38" s="63"/>
+      <c r="AK38" s="61"/>
+      <c r="AL38" s="62"/>
+      <c r="AM38" s="63"/>
       <c r="AN38" s="8"/>
       <c r="AO38" s="1"/>
       <c r="AP38" s="1"/>
@@ -4160,15 +4161,15 @@
       <c r="CF38" s="1"/>
     </row>
     <row r="39" spans="1:84" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B39" s="28"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="30"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="28"/>
       <c r="K39" s="37"/>
       <c r="L39" s="38"/>
       <c r="M39" s="38"/>
@@ -4184,26 +4185,26 @@
       <c r="W39" s="17"/>
       <c r="X39" s="17"/>
       <c r="Y39" s="12"/>
-      <c r="Z39" s="49"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="51"/>
-      <c r="AE39" s="58"/>
-      <c r="AF39" s="59"/>
-      <c r="AG39" s="60"/>
-      <c r="AH39" s="67"/>
-      <c r="AI39" s="68"/>
-      <c r="AJ39" s="69"/>
-      <c r="AK39" s="67"/>
-      <c r="AL39" s="68"/>
-      <c r="AM39" s="69"/>
+      <c r="Z39" s="46"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="47"/>
+      <c r="AD39" s="48"/>
+      <c r="AE39" s="55"/>
+      <c r="AF39" s="56"/>
+      <c r="AG39" s="57"/>
+      <c r="AH39" s="64"/>
+      <c r="AI39" s="65"/>
+      <c r="AJ39" s="66"/>
+      <c r="AK39" s="64"/>
+      <c r="AL39" s="65"/>
+      <c r="AM39" s="66"/>
       <c r="AN39" s="16"/>
       <c r="AO39" s="17"/>
       <c r="AP39" s="17"/>
       <c r="AQ39" s="12"/>
-      <c r="AR39" s="70"/>
-      <c r="AS39" s="71"/>
+      <c r="AR39" s="29"/>
+      <c r="AS39" s="30"/>
       <c r="AT39" s="16"/>
       <c r="AU39" s="17"/>
       <c r="AV39" s="17"/>
@@ -4245,15 +4246,15 @@
       <c r="CF39" s="1"/>
     </row>
     <row r="40" spans="1:84" ht="14.1" customHeight="1">
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="24"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="22"/>
       <c r="K40" s="31"/>
       <c r="L40" s="32"/>
       <c r="M40" s="32"/>
@@ -4269,20 +4270,20 @@
       <c r="W40" s="19"/>
       <c r="X40" s="19"/>
       <c r="Y40" s="6"/>
-      <c r="Z40" s="43"/>
-      <c r="AA40" s="44"/>
-      <c r="AB40" s="44"/>
-      <c r="AC40" s="44"/>
-      <c r="AD40" s="45"/>
-      <c r="AE40" s="52"/>
-      <c r="AF40" s="53"/>
-      <c r="AG40" s="54"/>
-      <c r="AH40" s="61"/>
-      <c r="AI40" s="62"/>
-      <c r="AJ40" s="63"/>
-      <c r="AK40" s="61"/>
-      <c r="AL40" s="62"/>
-      <c r="AM40" s="63"/>
+      <c r="Z40" s="40"/>
+      <c r="AA40" s="41"/>
+      <c r="AB40" s="41"/>
+      <c r="AC40" s="41"/>
+      <c r="AD40" s="42"/>
+      <c r="AE40" s="49"/>
+      <c r="AF40" s="50"/>
+      <c r="AG40" s="51"/>
+      <c r="AH40" s="58"/>
+      <c r="AI40" s="59"/>
+      <c r="AJ40" s="60"/>
+      <c r="AK40" s="58"/>
+      <c r="AL40" s="59"/>
+      <c r="AM40" s="60"/>
       <c r="AN40" s="18"/>
       <c r="AO40" s="19"/>
       <c r="AP40" s="19"/>
@@ -4330,15 +4331,15 @@
       <c r="CF40" s="1"/>
     </row>
     <row r="41" spans="1:84" ht="14.1" customHeight="1">
-      <c r="B41" s="25"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="27"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="25"/>
       <c r="K41" s="34"/>
       <c r="L41" s="35"/>
       <c r="M41" s="35"/>
@@ -4354,20 +4355,20 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="9"/>
-      <c r="Z41" s="46"/>
-      <c r="AA41" s="47"/>
-      <c r="AB41" s="47"/>
-      <c r="AC41" s="47"/>
-      <c r="AD41" s="48"/>
-      <c r="AE41" s="55"/>
-      <c r="AF41" s="56"/>
-      <c r="AG41" s="57"/>
-      <c r="AH41" s="64"/>
-      <c r="AI41" s="65"/>
-      <c r="AJ41" s="66"/>
-      <c r="AK41" s="64"/>
-      <c r="AL41" s="65"/>
-      <c r="AM41" s="66"/>
+      <c r="Z41" s="43"/>
+      <c r="AA41" s="44"/>
+      <c r="AB41" s="44"/>
+      <c r="AC41" s="44"/>
+      <c r="AD41" s="45"/>
+      <c r="AE41" s="52"/>
+      <c r="AF41" s="53"/>
+      <c r="AG41" s="54"/>
+      <c r="AH41" s="61"/>
+      <c r="AI41" s="62"/>
+      <c r="AJ41" s="63"/>
+      <c r="AK41" s="61"/>
+      <c r="AL41" s="62"/>
+      <c r="AM41" s="63"/>
       <c r="AN41" s="8"/>
       <c r="AO41" s="1"/>
       <c r="AP41" s="1"/>
@@ -4415,15 +4416,15 @@
       <c r="CF41" s="1"/>
     </row>
     <row r="42" spans="1:84" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B42" s="28"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="30"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="28"/>
       <c r="K42" s="37"/>
       <c r="L42" s="38"/>
       <c r="M42" s="38"/>
@@ -4439,26 +4440,26 @@
       <c r="W42" s="17"/>
       <c r="X42" s="17"/>
       <c r="Y42" s="12"/>
-      <c r="Z42" s="49"/>
-      <c r="AA42" s="50"/>
-      <c r="AB42" s="50"/>
-      <c r="AC42" s="50"/>
-      <c r="AD42" s="51"/>
-      <c r="AE42" s="58"/>
-      <c r="AF42" s="59"/>
-      <c r="AG42" s="60"/>
-      <c r="AH42" s="67"/>
-      <c r="AI42" s="68"/>
-      <c r="AJ42" s="69"/>
-      <c r="AK42" s="67"/>
-      <c r="AL42" s="68"/>
-      <c r="AM42" s="69"/>
+      <c r="Z42" s="46"/>
+      <c r="AA42" s="47"/>
+      <c r="AB42" s="47"/>
+      <c r="AC42" s="47"/>
+      <c r="AD42" s="48"/>
+      <c r="AE42" s="55"/>
+      <c r="AF42" s="56"/>
+      <c r="AG42" s="57"/>
+      <c r="AH42" s="64"/>
+      <c r="AI42" s="65"/>
+      <c r="AJ42" s="66"/>
+      <c r="AK42" s="64"/>
+      <c r="AL42" s="65"/>
+      <c r="AM42" s="66"/>
       <c r="AN42" s="16"/>
       <c r="AO42" s="17"/>
       <c r="AP42" s="17"/>
       <c r="AQ42" s="12"/>
-      <c r="AR42" s="70"/>
-      <c r="AS42" s="71"/>
+      <c r="AR42" s="29"/>
+      <c r="AS42" s="30"/>
       <c r="AT42" s="16"/>
       <c r="AU42" s="17"/>
       <c r="AV42" s="17"/>
@@ -4500,15 +4501,15 @@
       <c r="CF42" s="1"/>
     </row>
     <row r="43" spans="1:84" ht="14.1" customHeight="1">
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="24"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="22"/>
       <c r="K43" s="31"/>
       <c r="L43" s="32"/>
       <c r="M43" s="32"/>
@@ -4524,20 +4525,20 @@
       <c r="W43" s="19"/>
       <c r="X43" s="19"/>
       <c r="Y43" s="6"/>
-      <c r="Z43" s="43"/>
-      <c r="AA43" s="44"/>
-      <c r="AB43" s="44"/>
-      <c r="AC43" s="44"/>
-      <c r="AD43" s="45"/>
-      <c r="AE43" s="52"/>
-      <c r="AF43" s="53"/>
-      <c r="AG43" s="54"/>
-      <c r="AH43" s="61"/>
-      <c r="AI43" s="62"/>
-      <c r="AJ43" s="63"/>
-      <c r="AK43" s="61"/>
-      <c r="AL43" s="62"/>
-      <c r="AM43" s="63"/>
+      <c r="Z43" s="40"/>
+      <c r="AA43" s="41"/>
+      <c r="AB43" s="41"/>
+      <c r="AC43" s="41"/>
+      <c r="AD43" s="42"/>
+      <c r="AE43" s="49"/>
+      <c r="AF43" s="50"/>
+      <c r="AG43" s="51"/>
+      <c r="AH43" s="58"/>
+      <c r="AI43" s="59"/>
+      <c r="AJ43" s="60"/>
+      <c r="AK43" s="58"/>
+      <c r="AL43" s="59"/>
+      <c r="AM43" s="60"/>
       <c r="AN43" s="18"/>
       <c r="AO43" s="19"/>
       <c r="AP43" s="19"/>
@@ -4585,15 +4586,15 @@
       <c r="CF43" s="1"/>
     </row>
     <row r="44" spans="1:84" ht="14.1" customHeight="1">
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="27"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="25"/>
       <c r="K44" s="34"/>
       <c r="L44" s="35"/>
       <c r="M44" s="35"/>
@@ -4609,20 +4610,20 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="9"/>
-      <c r="Z44" s="46"/>
-      <c r="AA44" s="47"/>
-      <c r="AB44" s="47"/>
-      <c r="AC44" s="47"/>
-      <c r="AD44" s="48"/>
-      <c r="AE44" s="55"/>
-      <c r="AF44" s="56"/>
-      <c r="AG44" s="57"/>
-      <c r="AH44" s="64"/>
-      <c r="AI44" s="65"/>
-      <c r="AJ44" s="66"/>
-      <c r="AK44" s="64"/>
-      <c r="AL44" s="65"/>
-      <c r="AM44" s="66"/>
+      <c r="Z44" s="43"/>
+      <c r="AA44" s="44"/>
+      <c r="AB44" s="44"/>
+      <c r="AC44" s="44"/>
+      <c r="AD44" s="45"/>
+      <c r="AE44" s="52"/>
+      <c r="AF44" s="53"/>
+      <c r="AG44" s="54"/>
+      <c r="AH44" s="61"/>
+      <c r="AI44" s="62"/>
+      <c r="AJ44" s="63"/>
+      <c r="AK44" s="61"/>
+      <c r="AL44" s="62"/>
+      <c r="AM44" s="63"/>
       <c r="AN44" s="8"/>
       <c r="AO44" s="1"/>
       <c r="AP44" s="1"/>
@@ -4670,15 +4671,15 @@
       <c r="CF44" s="1"/>
     </row>
     <row r="45" spans="1:84" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B45" s="28"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="30"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="28"/>
       <c r="K45" s="37"/>
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
@@ -4694,26 +4695,26 @@
       <c r="W45" s="17"/>
       <c r="X45" s="17"/>
       <c r="Y45" s="12"/>
-      <c r="Z45" s="49"/>
-      <c r="AA45" s="50"/>
-      <c r="AB45" s="50"/>
-      <c r="AC45" s="50"/>
-      <c r="AD45" s="51"/>
-      <c r="AE45" s="58"/>
-      <c r="AF45" s="59"/>
-      <c r="AG45" s="60"/>
-      <c r="AH45" s="67"/>
-      <c r="AI45" s="68"/>
-      <c r="AJ45" s="69"/>
-      <c r="AK45" s="67"/>
-      <c r="AL45" s="68"/>
-      <c r="AM45" s="69"/>
+      <c r="Z45" s="46"/>
+      <c r="AA45" s="47"/>
+      <c r="AB45" s="47"/>
+      <c r="AC45" s="47"/>
+      <c r="AD45" s="48"/>
+      <c r="AE45" s="55"/>
+      <c r="AF45" s="56"/>
+      <c r="AG45" s="57"/>
+      <c r="AH45" s="64"/>
+      <c r="AI45" s="65"/>
+      <c r="AJ45" s="66"/>
+      <c r="AK45" s="64"/>
+      <c r="AL45" s="65"/>
+      <c r="AM45" s="66"/>
       <c r="AN45" s="16"/>
       <c r="AO45" s="17"/>
       <c r="AP45" s="17"/>
       <c r="AQ45" s="12"/>
-      <c r="AR45" s="70"/>
-      <c r="AS45" s="71"/>
+      <c r="AR45" s="29"/>
+      <c r="AS45" s="30"/>
       <c r="AT45" s="16"/>
       <c r="AU45" s="17"/>
       <c r="AV45" s="17"/>
@@ -4755,15 +4756,15 @@
       <c r="CF45" s="1"/>
     </row>
     <row r="46" spans="1:84" ht="14.1" customHeight="1">
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="24"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="22"/>
       <c r="K46" s="31"/>
       <c r="L46" s="32"/>
       <c r="M46" s="32"/>
@@ -4779,20 +4780,20 @@
       <c r="W46" s="19"/>
       <c r="X46" s="19"/>
       <c r="Y46" s="6"/>
-      <c r="Z46" s="43"/>
-      <c r="AA46" s="44"/>
-      <c r="AB46" s="44"/>
-      <c r="AC46" s="44"/>
-      <c r="AD46" s="45"/>
-      <c r="AE46" s="52"/>
-      <c r="AF46" s="53"/>
-      <c r="AG46" s="54"/>
-      <c r="AH46" s="61"/>
-      <c r="AI46" s="62"/>
-      <c r="AJ46" s="63"/>
-      <c r="AK46" s="61"/>
-      <c r="AL46" s="62"/>
-      <c r="AM46" s="63"/>
+      <c r="Z46" s="40"/>
+      <c r="AA46" s="41"/>
+      <c r="AB46" s="41"/>
+      <c r="AC46" s="41"/>
+      <c r="AD46" s="42"/>
+      <c r="AE46" s="49"/>
+      <c r="AF46" s="50"/>
+      <c r="AG46" s="51"/>
+      <c r="AH46" s="58"/>
+      <c r="AI46" s="59"/>
+      <c r="AJ46" s="60"/>
+      <c r="AK46" s="58"/>
+      <c r="AL46" s="59"/>
+      <c r="AM46" s="60"/>
       <c r="AN46" s="18"/>
       <c r="AO46" s="19"/>
       <c r="AP46" s="19"/>
@@ -4840,15 +4841,15 @@
       <c r="CF46" s="1"/>
     </row>
     <row r="47" spans="1:84" ht="14.1" customHeight="1">
-      <c r="B47" s="25"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="27"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="25"/>
       <c r="K47" s="34"/>
       <c r="L47" s="35"/>
       <c r="M47" s="35"/>
@@ -4864,20 +4865,20 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="9"/>
-      <c r="Z47" s="46"/>
-      <c r="AA47" s="47"/>
-      <c r="AB47" s="47"/>
-      <c r="AC47" s="47"/>
-      <c r="AD47" s="48"/>
-      <c r="AE47" s="55"/>
-      <c r="AF47" s="56"/>
-      <c r="AG47" s="57"/>
-      <c r="AH47" s="64"/>
-      <c r="AI47" s="65"/>
-      <c r="AJ47" s="66"/>
-      <c r="AK47" s="64"/>
-      <c r="AL47" s="65"/>
-      <c r="AM47" s="66"/>
+      <c r="Z47" s="43"/>
+      <c r="AA47" s="44"/>
+      <c r="AB47" s="44"/>
+      <c r="AC47" s="44"/>
+      <c r="AD47" s="45"/>
+      <c r="AE47" s="52"/>
+      <c r="AF47" s="53"/>
+      <c r="AG47" s="54"/>
+      <c r="AH47" s="61"/>
+      <c r="AI47" s="62"/>
+      <c r="AJ47" s="63"/>
+      <c r="AK47" s="61"/>
+      <c r="AL47" s="62"/>
+      <c r="AM47" s="63"/>
       <c r="AN47" s="8"/>
       <c r="AO47" s="1"/>
       <c r="AP47" s="1"/>
@@ -4925,15 +4926,15 @@
       <c r="CF47" s="1"/>
     </row>
     <row r="48" spans="1:84" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B48" s="28"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="30"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="28"/>
       <c r="K48" s="37"/>
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
@@ -4949,26 +4950,26 @@
       <c r="W48" s="17"/>
       <c r="X48" s="17"/>
       <c r="Y48" s="12"/>
-      <c r="Z48" s="49"/>
-      <c r="AA48" s="50"/>
-      <c r="AB48" s="50"/>
-      <c r="AC48" s="50"/>
-      <c r="AD48" s="51"/>
-      <c r="AE48" s="58"/>
-      <c r="AF48" s="59"/>
-      <c r="AG48" s="60"/>
-      <c r="AH48" s="67"/>
-      <c r="AI48" s="68"/>
-      <c r="AJ48" s="69"/>
-      <c r="AK48" s="67"/>
-      <c r="AL48" s="68"/>
-      <c r="AM48" s="69"/>
+      <c r="Z48" s="46"/>
+      <c r="AA48" s="47"/>
+      <c r="AB48" s="47"/>
+      <c r="AC48" s="47"/>
+      <c r="AD48" s="48"/>
+      <c r="AE48" s="55"/>
+      <c r="AF48" s="56"/>
+      <c r="AG48" s="57"/>
+      <c r="AH48" s="64"/>
+      <c r="AI48" s="65"/>
+      <c r="AJ48" s="66"/>
+      <c r="AK48" s="64"/>
+      <c r="AL48" s="65"/>
+      <c r="AM48" s="66"/>
       <c r="AN48" s="16"/>
       <c r="AO48" s="17"/>
       <c r="AP48" s="17"/>
       <c r="AQ48" s="12"/>
-      <c r="AR48" s="70"/>
-      <c r="AS48" s="71"/>
+      <c r="AR48" s="29"/>
+      <c r="AS48" s="30"/>
       <c r="AT48" s="16"/>
       <c r="AU48" s="17"/>
       <c r="AV48" s="17"/>
@@ -5010,15 +5011,15 @@
       <c r="CF48" s="1"/>
     </row>
     <row r="49" spans="2:84" ht="14.1" customHeight="1">
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="24"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="22"/>
       <c r="K49" s="31"/>
       <c r="L49" s="32"/>
       <c r="M49" s="32"/>
@@ -5034,20 +5035,20 @@
       <c r="W49" s="19"/>
       <c r="X49" s="19"/>
       <c r="Y49" s="6"/>
-      <c r="Z49" s="43"/>
-      <c r="AA49" s="44"/>
-      <c r="AB49" s="44"/>
-      <c r="AC49" s="44"/>
-      <c r="AD49" s="45"/>
-      <c r="AE49" s="52"/>
-      <c r="AF49" s="53"/>
-      <c r="AG49" s="54"/>
-      <c r="AH49" s="61"/>
-      <c r="AI49" s="62"/>
-      <c r="AJ49" s="63"/>
-      <c r="AK49" s="61"/>
-      <c r="AL49" s="62"/>
-      <c r="AM49" s="63"/>
+      <c r="Z49" s="40"/>
+      <c r="AA49" s="41"/>
+      <c r="AB49" s="41"/>
+      <c r="AC49" s="41"/>
+      <c r="AD49" s="42"/>
+      <c r="AE49" s="49"/>
+      <c r="AF49" s="50"/>
+      <c r="AG49" s="51"/>
+      <c r="AH49" s="58"/>
+      <c r="AI49" s="59"/>
+      <c r="AJ49" s="60"/>
+      <c r="AK49" s="58"/>
+      <c r="AL49" s="59"/>
+      <c r="AM49" s="60"/>
       <c r="AN49" s="18"/>
       <c r="AO49" s="19"/>
       <c r="AP49" s="19"/>
@@ -5095,15 +5096,15 @@
       <c r="CF49" s="1"/>
     </row>
     <row r="50" spans="2:84" ht="14.1" customHeight="1">
-      <c r="B50" s="25"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="27"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="25"/>
       <c r="K50" s="34"/>
       <c r="L50" s="35"/>
       <c r="M50" s="35"/>
@@ -5119,20 +5120,20 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="9"/>
-      <c r="Z50" s="46"/>
-      <c r="AA50" s="47"/>
-      <c r="AB50" s="47"/>
-      <c r="AC50" s="47"/>
-      <c r="AD50" s="48"/>
-      <c r="AE50" s="55"/>
-      <c r="AF50" s="56"/>
-      <c r="AG50" s="57"/>
-      <c r="AH50" s="64"/>
-      <c r="AI50" s="65"/>
-      <c r="AJ50" s="66"/>
-      <c r="AK50" s="64"/>
-      <c r="AL50" s="65"/>
-      <c r="AM50" s="66"/>
+      <c r="Z50" s="43"/>
+      <c r="AA50" s="44"/>
+      <c r="AB50" s="44"/>
+      <c r="AC50" s="44"/>
+      <c r="AD50" s="45"/>
+      <c r="AE50" s="52"/>
+      <c r="AF50" s="53"/>
+      <c r="AG50" s="54"/>
+      <c r="AH50" s="61"/>
+      <c r="AI50" s="62"/>
+      <c r="AJ50" s="63"/>
+      <c r="AK50" s="61"/>
+      <c r="AL50" s="62"/>
+      <c r="AM50" s="63"/>
       <c r="AN50" s="8"/>
       <c r="AO50" s="1"/>
       <c r="AP50" s="1"/>
@@ -5180,15 +5181,15 @@
       <c r="CF50" s="1"/>
     </row>
     <row r="51" spans="2:84" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B51" s="28"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="30"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="28"/>
       <c r="K51" s="37"/>
       <c r="L51" s="38"/>
       <c r="M51" s="38"/>
@@ -5204,26 +5205,26 @@
       <c r="W51" s="17"/>
       <c r="X51" s="17"/>
       <c r="Y51" s="12"/>
-      <c r="Z51" s="49"/>
-      <c r="AA51" s="50"/>
-      <c r="AB51" s="50"/>
-      <c r="AC51" s="50"/>
-      <c r="AD51" s="51"/>
-      <c r="AE51" s="58"/>
-      <c r="AF51" s="59"/>
-      <c r="AG51" s="60"/>
-      <c r="AH51" s="67"/>
-      <c r="AI51" s="68"/>
-      <c r="AJ51" s="69"/>
-      <c r="AK51" s="67"/>
-      <c r="AL51" s="68"/>
-      <c r="AM51" s="69"/>
+      <c r="Z51" s="46"/>
+      <c r="AA51" s="47"/>
+      <c r="AB51" s="47"/>
+      <c r="AC51" s="47"/>
+      <c r="AD51" s="48"/>
+      <c r="AE51" s="55"/>
+      <c r="AF51" s="56"/>
+      <c r="AG51" s="57"/>
+      <c r="AH51" s="64"/>
+      <c r="AI51" s="65"/>
+      <c r="AJ51" s="66"/>
+      <c r="AK51" s="64"/>
+      <c r="AL51" s="65"/>
+      <c r="AM51" s="66"/>
       <c r="AN51" s="16"/>
       <c r="AO51" s="17"/>
       <c r="AP51" s="17"/>
       <c r="AQ51" s="12"/>
-      <c r="AR51" s="70"/>
-      <c r="AS51" s="71"/>
+      <c r="AR51" s="29"/>
+      <c r="AS51" s="30"/>
       <c r="AT51" s="16"/>
       <c r="AU51" s="17"/>
       <c r="AV51" s="17"/>
@@ -5265,15 +5266,15 @@
       <c r="CF51" s="1"/>
     </row>
     <row r="52" spans="2:84" ht="14.1" customHeight="1">
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="24"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="22"/>
       <c r="K52" s="31"/>
       <c r="L52" s="32"/>
       <c r="M52" s="32"/>
@@ -5289,20 +5290,20 @@
       <c r="W52" s="19"/>
       <c r="X52" s="19"/>
       <c r="Y52" s="6"/>
-      <c r="Z52" s="43"/>
-      <c r="AA52" s="44"/>
-      <c r="AB52" s="44"/>
-      <c r="AC52" s="44"/>
-      <c r="AD52" s="45"/>
-      <c r="AE52" s="52"/>
-      <c r="AF52" s="53"/>
-      <c r="AG52" s="54"/>
-      <c r="AH52" s="61"/>
-      <c r="AI52" s="62"/>
-      <c r="AJ52" s="63"/>
-      <c r="AK52" s="61"/>
-      <c r="AL52" s="62"/>
-      <c r="AM52" s="63"/>
+      <c r="Z52" s="40"/>
+      <c r="AA52" s="41"/>
+      <c r="AB52" s="41"/>
+      <c r="AC52" s="41"/>
+      <c r="AD52" s="42"/>
+      <c r="AE52" s="49"/>
+      <c r="AF52" s="50"/>
+      <c r="AG52" s="51"/>
+      <c r="AH52" s="58"/>
+      <c r="AI52" s="59"/>
+      <c r="AJ52" s="60"/>
+      <c r="AK52" s="58"/>
+      <c r="AL52" s="59"/>
+      <c r="AM52" s="60"/>
       <c r="AN52" s="18"/>
       <c r="AO52" s="19"/>
       <c r="AP52" s="19"/>
@@ -5350,15 +5351,15 @@
       <c r="CF52" s="1"/>
     </row>
     <row r="53" spans="2:84" ht="14.1" customHeight="1">
-      <c r="B53" s="25"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="27"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="25"/>
       <c r="K53" s="34"/>
       <c r="L53" s="35"/>
       <c r="M53" s="35"/>
@@ -5374,20 +5375,20 @@
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
       <c r="Y53" s="9"/>
-      <c r="Z53" s="46"/>
-      <c r="AA53" s="47"/>
-      <c r="AB53" s="47"/>
-      <c r="AC53" s="47"/>
-      <c r="AD53" s="48"/>
-      <c r="AE53" s="55"/>
-      <c r="AF53" s="56"/>
-      <c r="AG53" s="57"/>
-      <c r="AH53" s="64"/>
-      <c r="AI53" s="65"/>
-      <c r="AJ53" s="66"/>
-      <c r="AK53" s="64"/>
-      <c r="AL53" s="65"/>
-      <c r="AM53" s="66"/>
+      <c r="Z53" s="43"/>
+      <c r="AA53" s="44"/>
+      <c r="AB53" s="44"/>
+      <c r="AC53" s="44"/>
+      <c r="AD53" s="45"/>
+      <c r="AE53" s="52"/>
+      <c r="AF53" s="53"/>
+      <c r="AG53" s="54"/>
+      <c r="AH53" s="61"/>
+      <c r="AI53" s="62"/>
+      <c r="AJ53" s="63"/>
+      <c r="AK53" s="61"/>
+      <c r="AL53" s="62"/>
+      <c r="AM53" s="63"/>
       <c r="AN53" s="8"/>
       <c r="AO53" s="1"/>
       <c r="AP53" s="1"/>
@@ -5435,15 +5436,15 @@
       <c r="CF53" s="1"/>
     </row>
     <row r="54" spans="2:84" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B54" s="28"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="30"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="28"/>
       <c r="K54" s="37"/>
       <c r="L54" s="38"/>
       <c r="M54" s="38"/>
@@ -5459,26 +5460,26 @@
       <c r="W54" s="17"/>
       <c r="X54" s="17"/>
       <c r="Y54" s="12"/>
-      <c r="Z54" s="49"/>
-      <c r="AA54" s="50"/>
-      <c r="AB54" s="50"/>
-      <c r="AC54" s="50"/>
-      <c r="AD54" s="51"/>
-      <c r="AE54" s="58"/>
-      <c r="AF54" s="59"/>
-      <c r="AG54" s="60"/>
-      <c r="AH54" s="67"/>
-      <c r="AI54" s="68"/>
-      <c r="AJ54" s="69"/>
-      <c r="AK54" s="67"/>
-      <c r="AL54" s="68"/>
-      <c r="AM54" s="69"/>
+      <c r="Z54" s="46"/>
+      <c r="AA54" s="47"/>
+      <c r="AB54" s="47"/>
+      <c r="AC54" s="47"/>
+      <c r="AD54" s="48"/>
+      <c r="AE54" s="55"/>
+      <c r="AF54" s="56"/>
+      <c r="AG54" s="57"/>
+      <c r="AH54" s="64"/>
+      <c r="AI54" s="65"/>
+      <c r="AJ54" s="66"/>
+      <c r="AK54" s="64"/>
+      <c r="AL54" s="65"/>
+      <c r="AM54" s="66"/>
       <c r="AN54" s="16"/>
       <c r="AO54" s="17"/>
       <c r="AP54" s="17"/>
       <c r="AQ54" s="12"/>
-      <c r="AR54" s="70"/>
-      <c r="AS54" s="71"/>
+      <c r="AR54" s="29"/>
+      <c r="AS54" s="30"/>
       <c r="AT54" s="16"/>
       <c r="AU54" s="17"/>
       <c r="AV54" s="17"/>
@@ -5489,15 +5490,15 @@
       <c r="BA54" s="12"/>
     </row>
     <row r="55" spans="2:84" ht="14.1" customHeight="1">
-      <c r="B55" s="22"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="24"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="22"/>
       <c r="K55" s="31"/>
       <c r="L55" s="32"/>
       <c r="M55" s="32"/>
@@ -5513,20 +5514,20 @@
       <c r="W55" s="19"/>
       <c r="X55" s="19"/>
       <c r="Y55" s="6"/>
-      <c r="Z55" s="43"/>
-      <c r="AA55" s="44"/>
-      <c r="AB55" s="44"/>
-      <c r="AC55" s="44"/>
-      <c r="AD55" s="45"/>
-      <c r="AE55" s="52"/>
-      <c r="AF55" s="53"/>
-      <c r="AG55" s="54"/>
-      <c r="AH55" s="61"/>
-      <c r="AI55" s="62"/>
-      <c r="AJ55" s="63"/>
-      <c r="AK55" s="61"/>
-      <c r="AL55" s="62"/>
-      <c r="AM55" s="63"/>
+      <c r="Z55" s="40"/>
+      <c r="AA55" s="41"/>
+      <c r="AB55" s="41"/>
+      <c r="AC55" s="41"/>
+      <c r="AD55" s="42"/>
+      <c r="AE55" s="49"/>
+      <c r="AF55" s="50"/>
+      <c r="AG55" s="51"/>
+      <c r="AH55" s="58"/>
+      <c r="AI55" s="59"/>
+      <c r="AJ55" s="60"/>
+      <c r="AK55" s="58"/>
+      <c r="AL55" s="59"/>
+      <c r="AM55" s="60"/>
       <c r="AN55" s="18"/>
       <c r="AO55" s="19"/>
       <c r="AP55" s="19"/>
@@ -5543,15 +5544,15 @@
       <c r="BA55" s="6"/>
     </row>
     <row r="56" spans="2:84" ht="14.1" customHeight="1">
-      <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="27"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="25"/>
       <c r="K56" s="34"/>
       <c r="L56" s="35"/>
       <c r="M56" s="35"/>
@@ -5567,20 +5568,20 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
       <c r="Y56" s="9"/>
-      <c r="Z56" s="46"/>
-      <c r="AA56" s="47"/>
-      <c r="AB56" s="47"/>
-      <c r="AC56" s="47"/>
-      <c r="AD56" s="48"/>
-      <c r="AE56" s="55"/>
-      <c r="AF56" s="56"/>
-      <c r="AG56" s="57"/>
-      <c r="AH56" s="64"/>
-      <c r="AI56" s="65"/>
-      <c r="AJ56" s="66"/>
-      <c r="AK56" s="64"/>
-      <c r="AL56" s="65"/>
-      <c r="AM56" s="66"/>
+      <c r="Z56" s="43"/>
+      <c r="AA56" s="44"/>
+      <c r="AB56" s="44"/>
+      <c r="AC56" s="44"/>
+      <c r="AD56" s="45"/>
+      <c r="AE56" s="52"/>
+      <c r="AF56" s="53"/>
+      <c r="AG56" s="54"/>
+      <c r="AH56" s="61"/>
+      <c r="AI56" s="62"/>
+      <c r="AJ56" s="63"/>
+      <c r="AK56" s="61"/>
+      <c r="AL56" s="62"/>
+      <c r="AM56" s="63"/>
       <c r="AN56" s="8"/>
       <c r="AO56" s="1"/>
       <c r="AP56" s="1"/>
@@ -5597,15 +5598,15 @@
       <c r="BA56" s="9"/>
     </row>
     <row r="57" spans="2:84" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B57" s="28"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="30"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="28"/>
       <c r="K57" s="37"/>
       <c r="L57" s="38"/>
       <c r="M57" s="38"/>
@@ -5621,26 +5622,26 @@
       <c r="W57" s="17"/>
       <c r="X57" s="17"/>
       <c r="Y57" s="12"/>
-      <c r="Z57" s="49"/>
-      <c r="AA57" s="50"/>
-      <c r="AB57" s="50"/>
-      <c r="AC57" s="50"/>
-      <c r="AD57" s="51"/>
-      <c r="AE57" s="58"/>
-      <c r="AF57" s="59"/>
-      <c r="AG57" s="60"/>
-      <c r="AH57" s="67"/>
-      <c r="AI57" s="68"/>
-      <c r="AJ57" s="69"/>
-      <c r="AK57" s="67"/>
-      <c r="AL57" s="68"/>
-      <c r="AM57" s="69"/>
+      <c r="Z57" s="46"/>
+      <c r="AA57" s="47"/>
+      <c r="AB57" s="47"/>
+      <c r="AC57" s="47"/>
+      <c r="AD57" s="48"/>
+      <c r="AE57" s="55"/>
+      <c r="AF57" s="56"/>
+      <c r="AG57" s="57"/>
+      <c r="AH57" s="64"/>
+      <c r="AI57" s="65"/>
+      <c r="AJ57" s="66"/>
+      <c r="AK57" s="64"/>
+      <c r="AL57" s="65"/>
+      <c r="AM57" s="66"/>
       <c r="AN57" s="16"/>
       <c r="AO57" s="17"/>
       <c r="AP57" s="17"/>
       <c r="AQ57" s="12"/>
-      <c r="AR57" s="70"/>
-      <c r="AS57" s="71"/>
+      <c r="AR57" s="29"/>
+      <c r="AS57" s="30"/>
       <c r="AT57" s="16"/>
       <c r="AU57" s="17"/>
       <c r="AV57" s="17"/>
@@ -5651,15 +5652,15 @@
       <c r="BA57" s="12"/>
     </row>
     <row r="58" spans="2:84" ht="14.1" customHeight="1">
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="24"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="22"/>
       <c r="K58" s="31"/>
       <c r="L58" s="32"/>
       <c r="M58" s="32"/>
@@ -5675,20 +5676,20 @@
       <c r="W58" s="19"/>
       <c r="X58" s="19"/>
       <c r="Y58" s="6"/>
-      <c r="Z58" s="43"/>
-      <c r="AA58" s="44"/>
-      <c r="AB58" s="44"/>
-      <c r="AC58" s="44"/>
-      <c r="AD58" s="45"/>
-      <c r="AE58" s="52"/>
-      <c r="AF58" s="53"/>
-      <c r="AG58" s="54"/>
-      <c r="AH58" s="61"/>
-      <c r="AI58" s="62"/>
-      <c r="AJ58" s="63"/>
-      <c r="AK58" s="61"/>
-      <c r="AL58" s="62"/>
-      <c r="AM58" s="63"/>
+      <c r="Z58" s="40"/>
+      <c r="AA58" s="41"/>
+      <c r="AB58" s="41"/>
+      <c r="AC58" s="41"/>
+      <c r="AD58" s="42"/>
+      <c r="AE58" s="49"/>
+      <c r="AF58" s="50"/>
+      <c r="AG58" s="51"/>
+      <c r="AH58" s="58"/>
+      <c r="AI58" s="59"/>
+      <c r="AJ58" s="60"/>
+      <c r="AK58" s="58"/>
+      <c r="AL58" s="59"/>
+      <c r="AM58" s="60"/>
       <c r="AN58" s="18"/>
       <c r="AO58" s="19"/>
       <c r="AP58" s="19"/>
@@ -5705,15 +5706,15 @@
       <c r="BA58" s="6"/>
     </row>
     <row r="59" spans="2:84" ht="14.1" customHeight="1">
-      <c r="B59" s="25"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="27"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="25"/>
       <c r="K59" s="34"/>
       <c r="L59" s="35"/>
       <c r="M59" s="35"/>
@@ -5729,20 +5730,20 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="9"/>
-      <c r="Z59" s="46"/>
-      <c r="AA59" s="47"/>
-      <c r="AB59" s="47"/>
-      <c r="AC59" s="47"/>
-      <c r="AD59" s="48"/>
-      <c r="AE59" s="55"/>
-      <c r="AF59" s="56"/>
-      <c r="AG59" s="57"/>
-      <c r="AH59" s="64"/>
-      <c r="AI59" s="65"/>
-      <c r="AJ59" s="66"/>
-      <c r="AK59" s="64"/>
-      <c r="AL59" s="65"/>
-      <c r="AM59" s="66"/>
+      <c r="Z59" s="43"/>
+      <c r="AA59" s="44"/>
+      <c r="AB59" s="44"/>
+      <c r="AC59" s="44"/>
+      <c r="AD59" s="45"/>
+      <c r="AE59" s="52"/>
+      <c r="AF59" s="53"/>
+      <c r="AG59" s="54"/>
+      <c r="AH59" s="61"/>
+      <c r="AI59" s="62"/>
+      <c r="AJ59" s="63"/>
+      <c r="AK59" s="61"/>
+      <c r="AL59" s="62"/>
+      <c r="AM59" s="63"/>
       <c r="AN59" s="8"/>
       <c r="AO59" s="1"/>
       <c r="AP59" s="1"/>
@@ -5759,15 +5760,15 @@
       <c r="BA59" s="9"/>
     </row>
     <row r="60" spans="2:84" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B60" s="28"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="30"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="28"/>
       <c r="K60" s="37"/>
       <c r="L60" s="38"/>
       <c r="M60" s="38"/>
@@ -5783,26 +5784,26 @@
       <c r="W60" s="17"/>
       <c r="X60" s="17"/>
       <c r="Y60" s="12"/>
-      <c r="Z60" s="49"/>
-      <c r="AA60" s="50"/>
-      <c r="AB60" s="50"/>
-      <c r="AC60" s="50"/>
-      <c r="AD60" s="51"/>
-      <c r="AE60" s="58"/>
-      <c r="AF60" s="59"/>
-      <c r="AG60" s="60"/>
-      <c r="AH60" s="67"/>
-      <c r="AI60" s="68"/>
-      <c r="AJ60" s="69"/>
-      <c r="AK60" s="67"/>
-      <c r="AL60" s="68"/>
-      <c r="AM60" s="69"/>
+      <c r="Z60" s="46"/>
+      <c r="AA60" s="47"/>
+      <c r="AB60" s="47"/>
+      <c r="AC60" s="47"/>
+      <c r="AD60" s="48"/>
+      <c r="AE60" s="55"/>
+      <c r="AF60" s="56"/>
+      <c r="AG60" s="57"/>
+      <c r="AH60" s="64"/>
+      <c r="AI60" s="65"/>
+      <c r="AJ60" s="66"/>
+      <c r="AK60" s="64"/>
+      <c r="AL60" s="65"/>
+      <c r="AM60" s="66"/>
       <c r="AN60" s="16"/>
       <c r="AO60" s="17"/>
       <c r="AP60" s="17"/>
       <c r="AQ60" s="12"/>
-      <c r="AR60" s="70"/>
-      <c r="AS60" s="71"/>
+      <c r="AR60" s="29"/>
+      <c r="AS60" s="30"/>
       <c r="AT60" s="16"/>
       <c r="AU60" s="17"/>
       <c r="AV60" s="17"/>
@@ -5813,15 +5814,15 @@
       <c r="BA60" s="12"/>
     </row>
     <row r="61" spans="2:84" ht="14.1" customHeight="1">
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="24"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="22"/>
       <c r="K61" s="31"/>
       <c r="L61" s="32"/>
       <c r="M61" s="32"/>
@@ -5837,20 +5838,20 @@
       <c r="W61" s="19"/>
       <c r="X61" s="19"/>
       <c r="Y61" s="6"/>
-      <c r="Z61" s="43"/>
-      <c r="AA61" s="44"/>
-      <c r="AB61" s="44"/>
-      <c r="AC61" s="44"/>
-      <c r="AD61" s="45"/>
-      <c r="AE61" s="52"/>
-      <c r="AF61" s="53"/>
-      <c r="AG61" s="54"/>
-      <c r="AH61" s="61"/>
-      <c r="AI61" s="62"/>
-      <c r="AJ61" s="63"/>
-      <c r="AK61" s="61"/>
-      <c r="AL61" s="62"/>
-      <c r="AM61" s="63"/>
+      <c r="Z61" s="40"/>
+      <c r="AA61" s="41"/>
+      <c r="AB61" s="41"/>
+      <c r="AC61" s="41"/>
+      <c r="AD61" s="42"/>
+      <c r="AE61" s="49"/>
+      <c r="AF61" s="50"/>
+      <c r="AG61" s="51"/>
+      <c r="AH61" s="58"/>
+      <c r="AI61" s="59"/>
+      <c r="AJ61" s="60"/>
+      <c r="AK61" s="58"/>
+      <c r="AL61" s="59"/>
+      <c r="AM61" s="60"/>
       <c r="AN61" s="18"/>
       <c r="AO61" s="19"/>
       <c r="AP61" s="19"/>
@@ -5867,15 +5868,15 @@
       <c r="BA61" s="6"/>
     </row>
     <row r="62" spans="2:84" ht="14.1" customHeight="1">
-      <c r="B62" s="25"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="27"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="25"/>
       <c r="K62" s="34"/>
       <c r="L62" s="35"/>
       <c r="M62" s="35"/>
@@ -5891,20 +5892,20 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="9"/>
-      <c r="Z62" s="46"/>
-      <c r="AA62" s="47"/>
-      <c r="AB62" s="47"/>
-      <c r="AC62" s="47"/>
-      <c r="AD62" s="48"/>
-      <c r="AE62" s="55"/>
-      <c r="AF62" s="56"/>
-      <c r="AG62" s="57"/>
-      <c r="AH62" s="64"/>
-      <c r="AI62" s="65"/>
-      <c r="AJ62" s="66"/>
-      <c r="AK62" s="64"/>
-      <c r="AL62" s="65"/>
-      <c r="AM62" s="66"/>
+      <c r="Z62" s="43"/>
+      <c r="AA62" s="44"/>
+      <c r="AB62" s="44"/>
+      <c r="AC62" s="44"/>
+      <c r="AD62" s="45"/>
+      <c r="AE62" s="52"/>
+      <c r="AF62" s="53"/>
+      <c r="AG62" s="54"/>
+      <c r="AH62" s="61"/>
+      <c r="AI62" s="62"/>
+      <c r="AJ62" s="63"/>
+      <c r="AK62" s="61"/>
+      <c r="AL62" s="62"/>
+      <c r="AM62" s="63"/>
       <c r="AN62" s="8"/>
       <c r="AO62" s="1"/>
       <c r="AP62" s="1"/>
@@ -5921,15 +5922,15 @@
       <c r="BA62" s="9"/>
     </row>
     <row r="63" spans="2:84" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B63" s="28"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="30"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="28"/>
       <c r="K63" s="37"/>
       <c r="L63" s="38"/>
       <c r="M63" s="38"/>
@@ -5945,26 +5946,26 @@
       <c r="W63" s="17"/>
       <c r="X63" s="17"/>
       <c r="Y63" s="12"/>
-      <c r="Z63" s="49"/>
-      <c r="AA63" s="50"/>
-      <c r="AB63" s="50"/>
-      <c r="AC63" s="50"/>
-      <c r="AD63" s="51"/>
-      <c r="AE63" s="58"/>
-      <c r="AF63" s="59"/>
-      <c r="AG63" s="60"/>
-      <c r="AH63" s="67"/>
-      <c r="AI63" s="68"/>
-      <c r="AJ63" s="69"/>
-      <c r="AK63" s="67"/>
-      <c r="AL63" s="68"/>
-      <c r="AM63" s="69"/>
+      <c r="Z63" s="46"/>
+      <c r="AA63" s="47"/>
+      <c r="AB63" s="47"/>
+      <c r="AC63" s="47"/>
+      <c r="AD63" s="48"/>
+      <c r="AE63" s="55"/>
+      <c r="AF63" s="56"/>
+      <c r="AG63" s="57"/>
+      <c r="AH63" s="64"/>
+      <c r="AI63" s="65"/>
+      <c r="AJ63" s="66"/>
+      <c r="AK63" s="64"/>
+      <c r="AL63" s="65"/>
+      <c r="AM63" s="66"/>
       <c r="AN63" s="16"/>
       <c r="AO63" s="17"/>
       <c r="AP63" s="17"/>
       <c r="AQ63" s="12"/>
-      <c r="AR63" s="70"/>
-      <c r="AS63" s="71"/>
+      <c r="AR63" s="29"/>
+      <c r="AS63" s="30"/>
       <c r="AT63" s="16"/>
       <c r="AU63" s="17"/>
       <c r="AV63" s="17"/>
@@ -5975,15 +5976,15 @@
       <c r="BA63" s="12"/>
     </row>
     <row r="64" spans="2:84" ht="14.1" customHeight="1">
-      <c r="B64" s="22"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="24"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="22"/>
       <c r="K64" s="31"/>
       <c r="L64" s="32"/>
       <c r="M64" s="32"/>
@@ -5999,20 +6000,20 @@
       <c r="W64" s="19"/>
       <c r="X64" s="19"/>
       <c r="Y64" s="6"/>
-      <c r="Z64" s="43"/>
-      <c r="AA64" s="44"/>
-      <c r="AB64" s="44"/>
-      <c r="AC64" s="44"/>
-      <c r="AD64" s="45"/>
-      <c r="AE64" s="52"/>
-      <c r="AF64" s="53"/>
-      <c r="AG64" s="54"/>
-      <c r="AH64" s="61"/>
-      <c r="AI64" s="62"/>
-      <c r="AJ64" s="63"/>
-      <c r="AK64" s="61"/>
-      <c r="AL64" s="62"/>
-      <c r="AM64" s="63"/>
+      <c r="Z64" s="40"/>
+      <c r="AA64" s="41"/>
+      <c r="AB64" s="41"/>
+      <c r="AC64" s="41"/>
+      <c r="AD64" s="42"/>
+      <c r="AE64" s="49"/>
+      <c r="AF64" s="50"/>
+      <c r="AG64" s="51"/>
+      <c r="AH64" s="58"/>
+      <c r="AI64" s="59"/>
+      <c r="AJ64" s="60"/>
+      <c r="AK64" s="58"/>
+      <c r="AL64" s="59"/>
+      <c r="AM64" s="60"/>
       <c r="AN64" s="18"/>
       <c r="AO64" s="19"/>
       <c r="AP64" s="19"/>
@@ -6029,15 +6030,15 @@
       <c r="BA64" s="6"/>
     </row>
     <row r="65" spans="2:53" ht="14.1" customHeight="1">
-      <c r="B65" s="25"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="27"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="25"/>
       <c r="K65" s="34"/>
       <c r="L65" s="35"/>
       <c r="M65" s="35"/>
@@ -6053,20 +6054,20 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
       <c r="Y65" s="9"/>
-      <c r="Z65" s="46"/>
-      <c r="AA65" s="47"/>
-      <c r="AB65" s="47"/>
-      <c r="AC65" s="47"/>
-      <c r="AD65" s="48"/>
-      <c r="AE65" s="55"/>
-      <c r="AF65" s="56"/>
-      <c r="AG65" s="57"/>
-      <c r="AH65" s="64"/>
-      <c r="AI65" s="65"/>
-      <c r="AJ65" s="66"/>
-      <c r="AK65" s="64"/>
-      <c r="AL65" s="65"/>
-      <c r="AM65" s="66"/>
+      <c r="Z65" s="43"/>
+      <c r="AA65" s="44"/>
+      <c r="AB65" s="44"/>
+      <c r="AC65" s="44"/>
+      <c r="AD65" s="45"/>
+      <c r="AE65" s="52"/>
+      <c r="AF65" s="53"/>
+      <c r="AG65" s="54"/>
+      <c r="AH65" s="61"/>
+      <c r="AI65" s="62"/>
+      <c r="AJ65" s="63"/>
+      <c r="AK65" s="61"/>
+      <c r="AL65" s="62"/>
+      <c r="AM65" s="63"/>
       <c r="AN65" s="8"/>
       <c r="AO65" s="1"/>
       <c r="AP65" s="1"/>
@@ -6083,15 +6084,15 @@
       <c r="BA65" s="9"/>
     </row>
     <row r="66" spans="2:53" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B66" s="28"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="30"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="28"/>
       <c r="K66" s="37"/>
       <c r="L66" s="38"/>
       <c r="M66" s="38"/>
@@ -6107,26 +6108,26 @@
       <c r="W66" s="17"/>
       <c r="X66" s="17"/>
       <c r="Y66" s="12"/>
-      <c r="Z66" s="49"/>
-      <c r="AA66" s="50"/>
-      <c r="AB66" s="50"/>
-      <c r="AC66" s="50"/>
-      <c r="AD66" s="51"/>
-      <c r="AE66" s="58"/>
-      <c r="AF66" s="59"/>
-      <c r="AG66" s="60"/>
-      <c r="AH66" s="67"/>
-      <c r="AI66" s="68"/>
-      <c r="AJ66" s="69"/>
-      <c r="AK66" s="67"/>
-      <c r="AL66" s="68"/>
-      <c r="AM66" s="69"/>
+      <c r="Z66" s="46"/>
+      <c r="AA66" s="47"/>
+      <c r="AB66" s="47"/>
+      <c r="AC66" s="47"/>
+      <c r="AD66" s="48"/>
+      <c r="AE66" s="55"/>
+      <c r="AF66" s="56"/>
+      <c r="AG66" s="57"/>
+      <c r="AH66" s="64"/>
+      <c r="AI66" s="65"/>
+      <c r="AJ66" s="66"/>
+      <c r="AK66" s="64"/>
+      <c r="AL66" s="65"/>
+      <c r="AM66" s="66"/>
       <c r="AN66" s="16"/>
       <c r="AO66" s="17"/>
       <c r="AP66" s="17"/>
       <c r="AQ66" s="12"/>
-      <c r="AR66" s="70"/>
-      <c r="AS66" s="71"/>
+      <c r="AR66" s="29"/>
+      <c r="AS66" s="30"/>
       <c r="AT66" s="16"/>
       <c r="AU66" s="17"/>
       <c r="AV66" s="17"/>
@@ -6137,15 +6138,15 @@
       <c r="BA66" s="12"/>
     </row>
     <row r="67" spans="2:53" ht="14.1" customHeight="1">
-      <c r="B67" s="22"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="24"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="22"/>
       <c r="K67" s="31"/>
       <c r="L67" s="32"/>
       <c r="M67" s="32"/>
@@ -6161,20 +6162,20 @@
       <c r="W67" s="19"/>
       <c r="X67" s="19"/>
       <c r="Y67" s="6"/>
-      <c r="Z67" s="43"/>
-      <c r="AA67" s="44"/>
-      <c r="AB67" s="44"/>
-      <c r="AC67" s="44"/>
-      <c r="AD67" s="45"/>
-      <c r="AE67" s="52"/>
-      <c r="AF67" s="53"/>
-      <c r="AG67" s="54"/>
-      <c r="AH67" s="61"/>
-      <c r="AI67" s="62"/>
-      <c r="AJ67" s="63"/>
-      <c r="AK67" s="61"/>
-      <c r="AL67" s="62"/>
-      <c r="AM67" s="63"/>
+      <c r="Z67" s="40"/>
+      <c r="AA67" s="41"/>
+      <c r="AB67" s="41"/>
+      <c r="AC67" s="41"/>
+      <c r="AD67" s="42"/>
+      <c r="AE67" s="49"/>
+      <c r="AF67" s="50"/>
+      <c r="AG67" s="51"/>
+      <c r="AH67" s="58"/>
+      <c r="AI67" s="59"/>
+      <c r="AJ67" s="60"/>
+      <c r="AK67" s="58"/>
+      <c r="AL67" s="59"/>
+      <c r="AM67" s="60"/>
       <c r="AN67" s="18"/>
       <c r="AO67" s="19"/>
       <c r="AP67" s="19"/>
@@ -6191,15 +6192,15 @@
       <c r="BA67" s="6"/>
     </row>
     <row r="68" spans="2:53" ht="14.1" customHeight="1">
-      <c r="B68" s="25"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="27"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="25"/>
       <c r="K68" s="34"/>
       <c r="L68" s="35"/>
       <c r="M68" s="35"/>
@@ -6215,20 +6216,20 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
       <c r="Y68" s="9"/>
-      <c r="Z68" s="46"/>
-      <c r="AA68" s="47"/>
-      <c r="AB68" s="47"/>
-      <c r="AC68" s="47"/>
-      <c r="AD68" s="48"/>
-      <c r="AE68" s="55"/>
-      <c r="AF68" s="56"/>
-      <c r="AG68" s="57"/>
-      <c r="AH68" s="64"/>
-      <c r="AI68" s="65"/>
-      <c r="AJ68" s="66"/>
-      <c r="AK68" s="64"/>
-      <c r="AL68" s="65"/>
-      <c r="AM68" s="66"/>
+      <c r="Z68" s="43"/>
+      <c r="AA68" s="44"/>
+      <c r="AB68" s="44"/>
+      <c r="AC68" s="44"/>
+      <c r="AD68" s="45"/>
+      <c r="AE68" s="52"/>
+      <c r="AF68" s="53"/>
+      <c r="AG68" s="54"/>
+      <c r="AH68" s="61"/>
+      <c r="AI68" s="62"/>
+      <c r="AJ68" s="63"/>
+      <c r="AK68" s="61"/>
+      <c r="AL68" s="62"/>
+      <c r="AM68" s="63"/>
       <c r="AN68" s="8"/>
       <c r="AO68" s="1"/>
       <c r="AP68" s="1"/>
@@ -6245,15 +6246,15 @@
       <c r="BA68" s="9"/>
     </row>
     <row r="69" spans="2:53" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B69" s="28"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="30"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="28"/>
       <c r="K69" s="37"/>
       <c r="L69" s="38"/>
       <c r="M69" s="38"/>
@@ -6269,26 +6270,26 @@
       <c r="W69" s="17"/>
       <c r="X69" s="17"/>
       <c r="Y69" s="12"/>
-      <c r="Z69" s="49"/>
-      <c r="AA69" s="50"/>
-      <c r="AB69" s="50"/>
-      <c r="AC69" s="50"/>
-      <c r="AD69" s="51"/>
-      <c r="AE69" s="58"/>
-      <c r="AF69" s="59"/>
-      <c r="AG69" s="60"/>
-      <c r="AH69" s="67"/>
-      <c r="AI69" s="68"/>
-      <c r="AJ69" s="69"/>
-      <c r="AK69" s="67"/>
-      <c r="AL69" s="68"/>
-      <c r="AM69" s="69"/>
+      <c r="Z69" s="46"/>
+      <c r="AA69" s="47"/>
+      <c r="AB69" s="47"/>
+      <c r="AC69" s="47"/>
+      <c r="AD69" s="48"/>
+      <c r="AE69" s="55"/>
+      <c r="AF69" s="56"/>
+      <c r="AG69" s="57"/>
+      <c r="AH69" s="64"/>
+      <c r="AI69" s="65"/>
+      <c r="AJ69" s="66"/>
+      <c r="AK69" s="64"/>
+      <c r="AL69" s="65"/>
+      <c r="AM69" s="66"/>
       <c r="AN69" s="16"/>
       <c r="AO69" s="17"/>
       <c r="AP69" s="17"/>
       <c r="AQ69" s="12"/>
-      <c r="AR69" s="70"/>
-      <c r="AS69" s="71"/>
+      <c r="AR69" s="29"/>
+      <c r="AS69" s="30"/>
       <c r="AT69" s="16"/>
       <c r="AU69" s="17"/>
       <c r="AV69" s="17"/>
@@ -6299,15 +6300,15 @@
       <c r="BA69" s="12"/>
     </row>
     <row r="70" spans="2:53" ht="14.1" customHeight="1">
-      <c r="B70" s="22"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="24"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="22"/>
       <c r="K70" s="31"/>
       <c r="L70" s="32"/>
       <c r="M70" s="32"/>
@@ -6323,20 +6324,20 @@
       <c r="W70" s="19"/>
       <c r="X70" s="19"/>
       <c r="Y70" s="6"/>
-      <c r="Z70" s="43"/>
-      <c r="AA70" s="44"/>
-      <c r="AB70" s="44"/>
-      <c r="AC70" s="44"/>
-      <c r="AD70" s="45"/>
-      <c r="AE70" s="52"/>
-      <c r="AF70" s="53"/>
-      <c r="AG70" s="54"/>
-      <c r="AH70" s="61"/>
-      <c r="AI70" s="62"/>
-      <c r="AJ70" s="63"/>
-      <c r="AK70" s="61"/>
-      <c r="AL70" s="62"/>
-      <c r="AM70" s="63"/>
+      <c r="Z70" s="40"/>
+      <c r="AA70" s="41"/>
+      <c r="AB70" s="41"/>
+      <c r="AC70" s="41"/>
+      <c r="AD70" s="42"/>
+      <c r="AE70" s="49"/>
+      <c r="AF70" s="50"/>
+      <c r="AG70" s="51"/>
+      <c r="AH70" s="58"/>
+      <c r="AI70" s="59"/>
+      <c r="AJ70" s="60"/>
+      <c r="AK70" s="58"/>
+      <c r="AL70" s="59"/>
+      <c r="AM70" s="60"/>
       <c r="AN70" s="18"/>
       <c r="AO70" s="19"/>
       <c r="AP70" s="19"/>
@@ -6353,15 +6354,15 @@
       <c r="BA70" s="6"/>
     </row>
     <row r="71" spans="2:53" ht="14.1" customHeight="1">
-      <c r="B71" s="25"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="27"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="25"/>
       <c r="K71" s="34"/>
       <c r="L71" s="35"/>
       <c r="M71" s="35"/>
@@ -6377,20 +6378,20 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
       <c r="Y71" s="9"/>
-      <c r="Z71" s="46"/>
-      <c r="AA71" s="47"/>
-      <c r="AB71" s="47"/>
-      <c r="AC71" s="47"/>
-      <c r="AD71" s="48"/>
-      <c r="AE71" s="55"/>
-      <c r="AF71" s="56"/>
-      <c r="AG71" s="57"/>
-      <c r="AH71" s="64"/>
-      <c r="AI71" s="65"/>
-      <c r="AJ71" s="66"/>
-      <c r="AK71" s="64"/>
-      <c r="AL71" s="65"/>
-      <c r="AM71" s="66"/>
+      <c r="Z71" s="43"/>
+      <c r="AA71" s="44"/>
+      <c r="AB71" s="44"/>
+      <c r="AC71" s="44"/>
+      <c r="AD71" s="45"/>
+      <c r="AE71" s="52"/>
+      <c r="AF71" s="53"/>
+      <c r="AG71" s="54"/>
+      <c r="AH71" s="61"/>
+      <c r="AI71" s="62"/>
+      <c r="AJ71" s="63"/>
+      <c r="AK71" s="61"/>
+      <c r="AL71" s="62"/>
+      <c r="AM71" s="63"/>
       <c r="AN71" s="8"/>
       <c r="AO71" s="1"/>
       <c r="AP71" s="1"/>
@@ -6407,15 +6408,15 @@
       <c r="BA71" s="9"/>
     </row>
     <row r="72" spans="2:53" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B72" s="28"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="30"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="28"/>
       <c r="K72" s="37"/>
       <c r="L72" s="38"/>
       <c r="M72" s="38"/>
@@ -6431,26 +6432,26 @@
       <c r="W72" s="17"/>
       <c r="X72" s="17"/>
       <c r="Y72" s="12"/>
-      <c r="Z72" s="49"/>
-      <c r="AA72" s="50"/>
-      <c r="AB72" s="50"/>
-      <c r="AC72" s="50"/>
-      <c r="AD72" s="51"/>
-      <c r="AE72" s="58"/>
-      <c r="AF72" s="59"/>
-      <c r="AG72" s="60"/>
-      <c r="AH72" s="67"/>
-      <c r="AI72" s="68"/>
-      <c r="AJ72" s="69"/>
-      <c r="AK72" s="67"/>
-      <c r="AL72" s="68"/>
-      <c r="AM72" s="69"/>
+      <c r="Z72" s="46"/>
+      <c r="AA72" s="47"/>
+      <c r="AB72" s="47"/>
+      <c r="AC72" s="47"/>
+      <c r="AD72" s="48"/>
+      <c r="AE72" s="55"/>
+      <c r="AF72" s="56"/>
+      <c r="AG72" s="57"/>
+      <c r="AH72" s="64"/>
+      <c r="AI72" s="65"/>
+      <c r="AJ72" s="66"/>
+      <c r="AK72" s="64"/>
+      <c r="AL72" s="65"/>
+      <c r="AM72" s="66"/>
       <c r="AN72" s="16"/>
       <c r="AO72" s="17"/>
       <c r="AP72" s="17"/>
       <c r="AQ72" s="12"/>
-      <c r="AR72" s="70"/>
-      <c r="AS72" s="71"/>
+      <c r="AR72" s="29"/>
+      <c r="AS72" s="30"/>
       <c r="AT72" s="16"/>
       <c r="AU72" s="17"/>
       <c r="AV72" s="17"/>
@@ -6461,15 +6462,15 @@
       <c r="BA72" s="12"/>
     </row>
     <row r="73" spans="2:53" ht="14.1" customHeight="1">
-      <c r="B73" s="22"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="23"/>
-      <c r="J73" s="24"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="22"/>
       <c r="K73" s="31"/>
       <c r="L73" s="32"/>
       <c r="M73" s="32"/>
@@ -6485,20 +6486,20 @@
       <c r="W73" s="19"/>
       <c r="X73" s="19"/>
       <c r="Y73" s="6"/>
-      <c r="Z73" s="43"/>
-      <c r="AA73" s="44"/>
-      <c r="AB73" s="44"/>
-      <c r="AC73" s="44"/>
-      <c r="AD73" s="45"/>
-      <c r="AE73" s="52"/>
-      <c r="AF73" s="53"/>
-      <c r="AG73" s="54"/>
-      <c r="AH73" s="61"/>
-      <c r="AI73" s="62"/>
-      <c r="AJ73" s="63"/>
-      <c r="AK73" s="61"/>
-      <c r="AL73" s="62"/>
-      <c r="AM73" s="63"/>
+      <c r="Z73" s="40"/>
+      <c r="AA73" s="41"/>
+      <c r="AB73" s="41"/>
+      <c r="AC73" s="41"/>
+      <c r="AD73" s="42"/>
+      <c r="AE73" s="49"/>
+      <c r="AF73" s="50"/>
+      <c r="AG73" s="51"/>
+      <c r="AH73" s="58"/>
+      <c r="AI73" s="59"/>
+      <c r="AJ73" s="60"/>
+      <c r="AK73" s="58"/>
+      <c r="AL73" s="59"/>
+      <c r="AM73" s="60"/>
       <c r="AN73" s="18"/>
       <c r="AO73" s="19"/>
       <c r="AP73" s="19"/>
@@ -6515,15 +6516,15 @@
       <c r="BA73" s="6"/>
     </row>
     <row r="74" spans="2:53" ht="14.1" customHeight="1">
-      <c r="B74" s="25"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="27"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="25"/>
       <c r="K74" s="34"/>
       <c r="L74" s="35"/>
       <c r="M74" s="35"/>
@@ -6539,20 +6540,20 @@
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="9"/>
-      <c r="Z74" s="46"/>
-      <c r="AA74" s="47"/>
-      <c r="AB74" s="47"/>
-      <c r="AC74" s="47"/>
-      <c r="AD74" s="48"/>
-      <c r="AE74" s="55"/>
-      <c r="AF74" s="56"/>
-      <c r="AG74" s="57"/>
-      <c r="AH74" s="64"/>
-      <c r="AI74" s="65"/>
-      <c r="AJ74" s="66"/>
-      <c r="AK74" s="64"/>
-      <c r="AL74" s="65"/>
-      <c r="AM74" s="66"/>
+      <c r="Z74" s="43"/>
+      <c r="AA74" s="44"/>
+      <c r="AB74" s="44"/>
+      <c r="AC74" s="44"/>
+      <c r="AD74" s="45"/>
+      <c r="AE74" s="52"/>
+      <c r="AF74" s="53"/>
+      <c r="AG74" s="54"/>
+      <c r="AH74" s="61"/>
+      <c r="AI74" s="62"/>
+      <c r="AJ74" s="63"/>
+      <c r="AK74" s="61"/>
+      <c r="AL74" s="62"/>
+      <c r="AM74" s="63"/>
       <c r="AN74" s="8"/>
       <c r="AO74" s="1"/>
       <c r="AP74" s="1"/>
@@ -6569,15 +6570,15 @@
       <c r="BA74" s="9"/>
     </row>
     <row r="75" spans="2:53" ht="15" thickBot="1">
-      <c r="B75" s="28"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="30"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="28"/>
       <c r="K75" s="37"/>
       <c r="L75" s="38"/>
       <c r="M75" s="38"/>
@@ -6593,26 +6594,26 @@
       <c r="W75" s="17"/>
       <c r="X75" s="17"/>
       <c r="Y75" s="12"/>
-      <c r="Z75" s="49"/>
-      <c r="AA75" s="50"/>
-      <c r="AB75" s="50"/>
-      <c r="AC75" s="50"/>
-      <c r="AD75" s="51"/>
-      <c r="AE75" s="58"/>
-      <c r="AF75" s="59"/>
-      <c r="AG75" s="60"/>
-      <c r="AH75" s="67"/>
-      <c r="AI75" s="68"/>
-      <c r="AJ75" s="69"/>
-      <c r="AK75" s="67"/>
-      <c r="AL75" s="68"/>
-      <c r="AM75" s="69"/>
+      <c r="Z75" s="46"/>
+      <c r="AA75" s="47"/>
+      <c r="AB75" s="47"/>
+      <c r="AC75" s="47"/>
+      <c r="AD75" s="48"/>
+      <c r="AE75" s="55"/>
+      <c r="AF75" s="56"/>
+      <c r="AG75" s="57"/>
+      <c r="AH75" s="64"/>
+      <c r="AI75" s="65"/>
+      <c r="AJ75" s="66"/>
+      <c r="AK75" s="64"/>
+      <c r="AL75" s="65"/>
+      <c r="AM75" s="66"/>
       <c r="AN75" s="16"/>
       <c r="AO75" s="17"/>
       <c r="AP75" s="17"/>
       <c r="AQ75" s="12"/>
-      <c r="AR75" s="70"/>
-      <c r="AS75" s="71"/>
+      <c r="AR75" s="29"/>
+      <c r="AS75" s="30"/>
       <c r="AT75" s="16"/>
       <c r="AU75" s="17"/>
       <c r="AV75" s="17"/>
@@ -6622,16 +6623,16 @@
       <c r="AZ75" s="17"/>
       <c r="BA75" s="12"/>
     </row>
-    <row r="76" spans="2:53" ht="14.4">
-      <c r="B76" s="22"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="23"/>
-      <c r="J76" s="24"/>
+    <row r="76" spans="2:53" ht="14.25">
+      <c r="B76" s="20"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="22"/>
       <c r="K76" s="31"/>
       <c r="L76" s="32"/>
       <c r="M76" s="32"/>
@@ -6647,20 +6648,20 @@
       <c r="W76" s="19"/>
       <c r="X76" s="19"/>
       <c r="Y76" s="6"/>
-      <c r="Z76" s="43"/>
-      <c r="AA76" s="44"/>
-      <c r="AB76" s="44"/>
-      <c r="AC76" s="44"/>
-      <c r="AD76" s="45"/>
-      <c r="AE76" s="52"/>
-      <c r="AF76" s="53"/>
-      <c r="AG76" s="54"/>
-      <c r="AH76" s="61"/>
-      <c r="AI76" s="62"/>
-      <c r="AJ76" s="63"/>
-      <c r="AK76" s="61"/>
-      <c r="AL76" s="62"/>
-      <c r="AM76" s="63"/>
+      <c r="Z76" s="40"/>
+      <c r="AA76" s="41"/>
+      <c r="AB76" s="41"/>
+      <c r="AC76" s="41"/>
+      <c r="AD76" s="42"/>
+      <c r="AE76" s="49"/>
+      <c r="AF76" s="50"/>
+      <c r="AG76" s="51"/>
+      <c r="AH76" s="58"/>
+      <c r="AI76" s="59"/>
+      <c r="AJ76" s="60"/>
+      <c r="AK76" s="58"/>
+      <c r="AL76" s="59"/>
+      <c r="AM76" s="60"/>
       <c r="AN76" s="18"/>
       <c r="AO76" s="19"/>
       <c r="AP76" s="19"/>
@@ -6676,16 +6677,16 @@
       <c r="AZ76" s="19"/>
       <c r="BA76" s="6"/>
     </row>
-    <row r="77" spans="2:53" ht="14.4">
-      <c r="B77" s="25"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="27"/>
+    <row r="77" spans="2:53" ht="14.25">
+      <c r="B77" s="23"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="25"/>
       <c r="K77" s="34"/>
       <c r="L77" s="35"/>
       <c r="M77" s="35"/>
@@ -6701,20 +6702,20 @@
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
       <c r="Y77" s="9"/>
-      <c r="Z77" s="46"/>
-      <c r="AA77" s="47"/>
-      <c r="AB77" s="47"/>
-      <c r="AC77" s="47"/>
-      <c r="AD77" s="48"/>
-      <c r="AE77" s="55"/>
-      <c r="AF77" s="56"/>
-      <c r="AG77" s="57"/>
-      <c r="AH77" s="64"/>
-      <c r="AI77" s="65"/>
-      <c r="AJ77" s="66"/>
-      <c r="AK77" s="64"/>
-      <c r="AL77" s="65"/>
-      <c r="AM77" s="66"/>
+      <c r="Z77" s="43"/>
+      <c r="AA77" s="44"/>
+      <c r="AB77" s="44"/>
+      <c r="AC77" s="44"/>
+      <c r="AD77" s="45"/>
+      <c r="AE77" s="52"/>
+      <c r="AF77" s="53"/>
+      <c r="AG77" s="54"/>
+      <c r="AH77" s="61"/>
+      <c r="AI77" s="62"/>
+      <c r="AJ77" s="63"/>
+      <c r="AK77" s="61"/>
+      <c r="AL77" s="62"/>
+      <c r="AM77" s="63"/>
       <c r="AN77" s="8"/>
       <c r="AO77" s="1"/>
       <c r="AP77" s="1"/>
@@ -6731,15 +6732,15 @@
       <c r="BA77" s="9"/>
     </row>
     <row r="78" spans="2:53" ht="15" thickBot="1">
-      <c r="B78" s="28"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="30"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="28"/>
       <c r="K78" s="37"/>
       <c r="L78" s="38"/>
       <c r="M78" s="38"/>
@@ -6755,26 +6756,26 @@
       <c r="W78" s="17"/>
       <c r="X78" s="17"/>
       <c r="Y78" s="12"/>
-      <c r="Z78" s="49"/>
-      <c r="AA78" s="50"/>
-      <c r="AB78" s="50"/>
-      <c r="AC78" s="50"/>
-      <c r="AD78" s="51"/>
-      <c r="AE78" s="58"/>
-      <c r="AF78" s="59"/>
-      <c r="AG78" s="60"/>
-      <c r="AH78" s="67"/>
-      <c r="AI78" s="68"/>
-      <c r="AJ78" s="69"/>
-      <c r="AK78" s="67"/>
-      <c r="AL78" s="68"/>
-      <c r="AM78" s="69"/>
+      <c r="Z78" s="46"/>
+      <c r="AA78" s="47"/>
+      <c r="AB78" s="47"/>
+      <c r="AC78" s="47"/>
+      <c r="AD78" s="48"/>
+      <c r="AE78" s="55"/>
+      <c r="AF78" s="56"/>
+      <c r="AG78" s="57"/>
+      <c r="AH78" s="64"/>
+      <c r="AI78" s="65"/>
+      <c r="AJ78" s="66"/>
+      <c r="AK78" s="64"/>
+      <c r="AL78" s="65"/>
+      <c r="AM78" s="66"/>
       <c r="AN78" s="16"/>
       <c r="AO78" s="17"/>
       <c r="AP78" s="17"/>
       <c r="AQ78" s="12"/>
-      <c r="AR78" s="70"/>
-      <c r="AS78" s="71"/>
+      <c r="AR78" s="29"/>
+      <c r="AS78" s="30"/>
       <c r="AT78" s="16"/>
       <c r="AU78" s="17"/>
       <c r="AV78" s="17"/>
@@ -6784,16 +6785,16 @@
       <c r="AZ78" s="17"/>
       <c r="BA78" s="12"/>
     </row>
-    <row r="79" spans="2:53" ht="14.4">
-      <c r="B79" s="22"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="24"/>
+    <row r="79" spans="2:53" ht="14.25">
+      <c r="B79" s="20"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="22"/>
       <c r="K79" s="31"/>
       <c r="L79" s="32"/>
       <c r="M79" s="32"/>
@@ -6809,20 +6810,20 @@
       <c r="W79" s="19"/>
       <c r="X79" s="19"/>
       <c r="Y79" s="6"/>
-      <c r="Z79" s="43"/>
-      <c r="AA79" s="44"/>
-      <c r="AB79" s="44"/>
-      <c r="AC79" s="44"/>
-      <c r="AD79" s="45"/>
-      <c r="AE79" s="52"/>
-      <c r="AF79" s="53"/>
-      <c r="AG79" s="54"/>
-      <c r="AH79" s="61"/>
-      <c r="AI79" s="62"/>
-      <c r="AJ79" s="63"/>
-      <c r="AK79" s="61"/>
-      <c r="AL79" s="62"/>
-      <c r="AM79" s="63"/>
+      <c r="Z79" s="40"/>
+      <c r="AA79" s="41"/>
+      <c r="AB79" s="41"/>
+      <c r="AC79" s="41"/>
+      <c r="AD79" s="42"/>
+      <c r="AE79" s="49"/>
+      <c r="AF79" s="50"/>
+      <c r="AG79" s="51"/>
+      <c r="AH79" s="58"/>
+      <c r="AI79" s="59"/>
+      <c r="AJ79" s="60"/>
+      <c r="AK79" s="58"/>
+      <c r="AL79" s="59"/>
+      <c r="AM79" s="60"/>
       <c r="AN79" s="18"/>
       <c r="AO79" s="19"/>
       <c r="AP79" s="19"/>
@@ -6838,16 +6839,16 @@
       <c r="AZ79" s="19"/>
       <c r="BA79" s="6"/>
     </row>
-    <row r="80" spans="2:53" ht="14.4">
-      <c r="B80" s="25"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="27"/>
+    <row r="80" spans="2:53" ht="14.25">
+      <c r="B80" s="23"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="25"/>
       <c r="K80" s="34"/>
       <c r="L80" s="35"/>
       <c r="M80" s="35"/>
@@ -6863,20 +6864,20 @@
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
       <c r="Y80" s="9"/>
-      <c r="Z80" s="46"/>
-      <c r="AA80" s="47"/>
-      <c r="AB80" s="47"/>
-      <c r="AC80" s="47"/>
-      <c r="AD80" s="48"/>
-      <c r="AE80" s="55"/>
-      <c r="AF80" s="56"/>
-      <c r="AG80" s="57"/>
-      <c r="AH80" s="64"/>
-      <c r="AI80" s="65"/>
-      <c r="AJ80" s="66"/>
-      <c r="AK80" s="64"/>
-      <c r="AL80" s="65"/>
-      <c r="AM80" s="66"/>
+      <c r="Z80" s="43"/>
+      <c r="AA80" s="44"/>
+      <c r="AB80" s="44"/>
+      <c r="AC80" s="44"/>
+      <c r="AD80" s="45"/>
+      <c r="AE80" s="52"/>
+      <c r="AF80" s="53"/>
+      <c r="AG80" s="54"/>
+      <c r="AH80" s="61"/>
+      <c r="AI80" s="62"/>
+      <c r="AJ80" s="63"/>
+      <c r="AK80" s="61"/>
+      <c r="AL80" s="62"/>
+      <c r="AM80" s="63"/>
       <c r="AN80" s="8"/>
       <c r="AO80" s="1"/>
       <c r="AP80" s="1"/>
@@ -6893,15 +6894,15 @@
       <c r="BA80" s="9"/>
     </row>
     <row r="81" spans="2:53" ht="15" thickBot="1">
-      <c r="B81" s="28"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="30"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="28"/>
       <c r="K81" s="37"/>
       <c r="L81" s="38"/>
       <c r="M81" s="38"/>
@@ -6917,26 +6918,26 @@
       <c r="W81" s="17"/>
       <c r="X81" s="17"/>
       <c r="Y81" s="12"/>
-      <c r="Z81" s="49"/>
-      <c r="AA81" s="50"/>
-      <c r="AB81" s="50"/>
-      <c r="AC81" s="50"/>
-      <c r="AD81" s="51"/>
-      <c r="AE81" s="58"/>
-      <c r="AF81" s="59"/>
-      <c r="AG81" s="60"/>
-      <c r="AH81" s="67"/>
-      <c r="AI81" s="68"/>
-      <c r="AJ81" s="69"/>
-      <c r="AK81" s="67"/>
-      <c r="AL81" s="68"/>
-      <c r="AM81" s="69"/>
+      <c r="Z81" s="46"/>
+      <c r="AA81" s="47"/>
+      <c r="AB81" s="47"/>
+      <c r="AC81" s="47"/>
+      <c r="AD81" s="48"/>
+      <c r="AE81" s="55"/>
+      <c r="AF81" s="56"/>
+      <c r="AG81" s="57"/>
+      <c r="AH81" s="64"/>
+      <c r="AI81" s="65"/>
+      <c r="AJ81" s="66"/>
+      <c r="AK81" s="64"/>
+      <c r="AL81" s="65"/>
+      <c r="AM81" s="66"/>
       <c r="AN81" s="16"/>
       <c r="AO81" s="17"/>
       <c r="AP81" s="17"/>
       <c r="AQ81" s="12"/>
-      <c r="AR81" s="70"/>
-      <c r="AS81" s="71"/>
+      <c r="AR81" s="29"/>
+      <c r="AS81" s="30"/>
       <c r="AT81" s="16"/>
       <c r="AU81" s="17"/>
       <c r="AV81" s="17"/>
@@ -6946,7 +6947,7 @@
       <c r="AZ81" s="17"/>
       <c r="BA81" s="12"/>
     </row>
-    <row r="82" spans="2:53" ht="14.4">
+    <row r="82" spans="2:53" ht="15">
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
@@ -7000,7 +7001,7 @@
       <c r="AZ82"/>
       <c r="BA82"/>
     </row>
-    <row r="83" spans="2:53" ht="14.4">
+    <row r="83" spans="2:53" ht="15">
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
@@ -7054,7 +7055,7 @@
       <c r="AZ83"/>
       <c r="BA83"/>
     </row>
-    <row r="84" spans="2:53" ht="14.4">
+    <row r="84" spans="2:53" ht="15">
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
@@ -7108,7 +7109,7 @@
       <c r="AZ84"/>
       <c r="BA84"/>
     </row>
-    <row r="85" spans="2:53" ht="14.4">
+    <row r="85" spans="2:53" ht="15">
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
@@ -7162,7 +7163,7 @@
       <c r="AZ85"/>
       <c r="BA85"/>
     </row>
-    <row r="86" spans="2:53" ht="14.4">
+    <row r="86" spans="2:53" ht="15">
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
@@ -7216,7 +7217,7 @@
       <c r="AZ86"/>
       <c r="BA86"/>
     </row>
-    <row r="87" spans="2:53" ht="14.4">
+    <row r="87" spans="2:53" ht="15">
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
@@ -7270,7 +7271,7 @@
       <c r="AZ87"/>
       <c r="BA87"/>
     </row>
-    <row r="88" spans="2:53" ht="14.4">
+    <row r="88" spans="2:53" ht="15">
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
@@ -7324,7 +7325,7 @@
       <c r="AZ88"/>
       <c r="BA88"/>
     </row>
-    <row r="89" spans="2:53" ht="14.4">
+    <row r="89" spans="2:53" ht="15">
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
@@ -7378,7 +7379,7 @@
       <c r="AZ89"/>
       <c r="BA89"/>
     </row>
-    <row r="90" spans="2:53" ht="14.4">
+    <row r="90" spans="2:53" ht="15">
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
@@ -7432,7 +7433,7 @@
       <c r="AZ90"/>
       <c r="BA90"/>
     </row>
-    <row r="91" spans="2:53" ht="14.4">
+    <row r="91" spans="2:53" ht="15">
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
@@ -7486,7 +7487,7 @@
       <c r="AZ91"/>
       <c r="BA91"/>
     </row>
-    <row r="92" spans="2:53" ht="14.4">
+    <row r="92" spans="2:53" ht="15">
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
@@ -7540,7 +7541,7 @@
       <c r="AZ92"/>
       <c r="BA92"/>
     </row>
-    <row r="93" spans="2:53" ht="14.4">
+    <row r="93" spans="2:53" ht="15">
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
@@ -7594,7 +7595,7 @@
       <c r="AZ93"/>
       <c r="BA93"/>
     </row>
-    <row r="94" spans="2:53" ht="14.4">
+    <row r="94" spans="2:53" ht="15">
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
@@ -7648,7 +7649,7 @@
       <c r="AZ94"/>
       <c r="BA94"/>
     </row>
-    <row r="95" spans="2:53" ht="14.4">
+    <row r="95" spans="2:53" ht="15">
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
@@ -7702,7 +7703,7 @@
       <c r="AZ95"/>
       <c r="BA95"/>
     </row>
-    <row r="96" spans="2:53" ht="14.4">
+    <row r="96" spans="2:53" ht="15">
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
@@ -7756,7 +7757,7 @@
       <c r="AZ96"/>
       <c r="BA96"/>
     </row>
-    <row r="97" spans="2:53" ht="14.4">
+    <row r="97" spans="2:53" ht="15">
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97"/>
@@ -7810,7 +7811,7 @@
       <c r="AZ97"/>
       <c r="BA97"/>
     </row>
-    <row r="98" spans="2:53" ht="14.4">
+    <row r="98" spans="2:53" ht="15">
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98"/>
@@ -7864,7 +7865,7 @@
       <c r="AZ98"/>
       <c r="BA98"/>
     </row>
-    <row r="99" spans="2:53" ht="14.4">
+    <row r="99" spans="2:53" ht="15">
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
@@ -7920,6 +7921,167 @@
     </row>
   </sheetData>
   <mergeCells count="185">
+    <mergeCell ref="R1:AK3"/>
+    <mergeCell ref="B10:J12"/>
+    <mergeCell ref="K10:O12"/>
+    <mergeCell ref="AP3:AV3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="B3:H5"/>
+    <mergeCell ref="Z10:AD12"/>
+    <mergeCell ref="AE10:AG12"/>
+    <mergeCell ref="AH10:AJ12"/>
+    <mergeCell ref="AK10:AM12"/>
+    <mergeCell ref="AR12:AS12"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="AK7:AM8"/>
+    <mergeCell ref="AR7:AS7"/>
+    <mergeCell ref="AY7:BA8"/>
+    <mergeCell ref="AT8:AX9"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="AN9:AQ9"/>
+    <mergeCell ref="B7:J8"/>
+    <mergeCell ref="K7:O8"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="Z7:AD8"/>
+    <mergeCell ref="AE7:AG8"/>
+    <mergeCell ref="AH7:AJ8"/>
+    <mergeCell ref="AK13:AM15"/>
+    <mergeCell ref="AR15:AS15"/>
+    <mergeCell ref="B16:J18"/>
+    <mergeCell ref="K16:O18"/>
+    <mergeCell ref="Z16:AD18"/>
+    <mergeCell ref="AE16:AG18"/>
+    <mergeCell ref="AH16:AJ18"/>
+    <mergeCell ref="AK16:AM18"/>
+    <mergeCell ref="AR18:AS18"/>
+    <mergeCell ref="B13:J15"/>
+    <mergeCell ref="K13:O15"/>
+    <mergeCell ref="Z13:AD15"/>
+    <mergeCell ref="AE13:AG15"/>
+    <mergeCell ref="AH13:AJ15"/>
+    <mergeCell ref="AK19:AM21"/>
+    <mergeCell ref="AR21:AS21"/>
+    <mergeCell ref="B22:J24"/>
+    <mergeCell ref="K22:O24"/>
+    <mergeCell ref="Z22:AD24"/>
+    <mergeCell ref="AE22:AG24"/>
+    <mergeCell ref="AH22:AJ24"/>
+    <mergeCell ref="AK22:AM24"/>
+    <mergeCell ref="AR24:AS24"/>
+    <mergeCell ref="B19:J21"/>
+    <mergeCell ref="K19:O21"/>
+    <mergeCell ref="Z19:AD21"/>
+    <mergeCell ref="AE19:AG21"/>
+    <mergeCell ref="AH19:AJ21"/>
+    <mergeCell ref="AR27:AS27"/>
+    <mergeCell ref="B28:J30"/>
+    <mergeCell ref="K28:O30"/>
+    <mergeCell ref="Z28:AD30"/>
+    <mergeCell ref="AE28:AG30"/>
+    <mergeCell ref="AH28:AJ30"/>
+    <mergeCell ref="AK28:AM30"/>
+    <mergeCell ref="AR30:AS30"/>
+    <mergeCell ref="K25:O27"/>
+    <mergeCell ref="Z25:AD27"/>
+    <mergeCell ref="AE25:AG27"/>
+    <mergeCell ref="AH25:AJ27"/>
+    <mergeCell ref="AK25:AM27"/>
+    <mergeCell ref="B25:J27"/>
+    <mergeCell ref="AR33:AS33"/>
+    <mergeCell ref="B34:J36"/>
+    <mergeCell ref="K34:O36"/>
+    <mergeCell ref="Z34:AD36"/>
+    <mergeCell ref="AE34:AG36"/>
+    <mergeCell ref="AH34:AJ36"/>
+    <mergeCell ref="AK34:AM36"/>
+    <mergeCell ref="AR36:AS36"/>
+    <mergeCell ref="K31:O33"/>
+    <mergeCell ref="Z31:AD33"/>
+    <mergeCell ref="AE31:AG33"/>
+    <mergeCell ref="AH31:AJ33"/>
+    <mergeCell ref="AK31:AM33"/>
+    <mergeCell ref="B31:J33"/>
+    <mergeCell ref="AR39:AS39"/>
+    <mergeCell ref="B40:J42"/>
+    <mergeCell ref="K40:O42"/>
+    <mergeCell ref="Z40:AD42"/>
+    <mergeCell ref="AE40:AG42"/>
+    <mergeCell ref="AH40:AJ42"/>
+    <mergeCell ref="AK40:AM42"/>
+    <mergeCell ref="AR42:AS42"/>
+    <mergeCell ref="K37:O39"/>
+    <mergeCell ref="Z37:AD39"/>
+    <mergeCell ref="AE37:AG39"/>
+    <mergeCell ref="AH37:AJ39"/>
+    <mergeCell ref="AK37:AM39"/>
+    <mergeCell ref="B37:J39"/>
+    <mergeCell ref="AR45:AS45"/>
+    <mergeCell ref="B46:J48"/>
+    <mergeCell ref="K46:O48"/>
+    <mergeCell ref="Z46:AD48"/>
+    <mergeCell ref="AE46:AG48"/>
+    <mergeCell ref="AH46:AJ48"/>
+    <mergeCell ref="AK46:AM48"/>
+    <mergeCell ref="AR48:AS48"/>
+    <mergeCell ref="K43:O45"/>
+    <mergeCell ref="Z43:AD45"/>
+    <mergeCell ref="AE43:AG45"/>
+    <mergeCell ref="AH43:AJ45"/>
+    <mergeCell ref="AK43:AM45"/>
+    <mergeCell ref="B43:J45"/>
+    <mergeCell ref="AR51:AS51"/>
+    <mergeCell ref="B52:J54"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="Z52:AD54"/>
+    <mergeCell ref="AE52:AG54"/>
+    <mergeCell ref="AH52:AJ54"/>
+    <mergeCell ref="AK52:AM54"/>
+    <mergeCell ref="AR54:AS54"/>
+    <mergeCell ref="K49:O51"/>
+    <mergeCell ref="Z49:AD51"/>
+    <mergeCell ref="AE49:AG51"/>
+    <mergeCell ref="AH49:AJ51"/>
+    <mergeCell ref="AK49:AM51"/>
+    <mergeCell ref="B49:J51"/>
+    <mergeCell ref="AR57:AS57"/>
+    <mergeCell ref="B58:J60"/>
+    <mergeCell ref="K58:O60"/>
+    <mergeCell ref="Z58:AD60"/>
+    <mergeCell ref="AE58:AG60"/>
+    <mergeCell ref="AH58:AJ60"/>
+    <mergeCell ref="AK58:AM60"/>
+    <mergeCell ref="AR60:AS60"/>
+    <mergeCell ref="K55:O57"/>
+    <mergeCell ref="Z55:AD57"/>
+    <mergeCell ref="AE55:AG57"/>
+    <mergeCell ref="AH55:AJ57"/>
+    <mergeCell ref="AK55:AM57"/>
+    <mergeCell ref="B55:J57"/>
+    <mergeCell ref="B67:J69"/>
+    <mergeCell ref="AR63:AS63"/>
+    <mergeCell ref="B64:J66"/>
+    <mergeCell ref="K64:O66"/>
+    <mergeCell ref="Z64:AD66"/>
+    <mergeCell ref="AE64:AG66"/>
+    <mergeCell ref="AH64:AJ66"/>
+    <mergeCell ref="AK64:AM66"/>
+    <mergeCell ref="AR66:AS66"/>
+    <mergeCell ref="K61:O63"/>
+    <mergeCell ref="Z61:AD63"/>
+    <mergeCell ref="AE61:AG63"/>
+    <mergeCell ref="AH61:AJ63"/>
+    <mergeCell ref="AK61:AM63"/>
+    <mergeCell ref="B61:J63"/>
+    <mergeCell ref="AE70:AG72"/>
+    <mergeCell ref="AH70:AJ72"/>
+    <mergeCell ref="AK70:AM72"/>
+    <mergeCell ref="AR72:AS72"/>
+    <mergeCell ref="K67:O69"/>
+    <mergeCell ref="Z67:AD69"/>
+    <mergeCell ref="AE67:AG69"/>
+    <mergeCell ref="AH67:AJ69"/>
+    <mergeCell ref="AK67:AM69"/>
+    <mergeCell ref="AR69:AS69"/>
     <mergeCell ref="B70:J72"/>
     <mergeCell ref="AR81:AS81"/>
     <mergeCell ref="K79:O81"/>
@@ -7944,170 +8106,9 @@
     <mergeCell ref="B79:J81"/>
     <mergeCell ref="K70:O72"/>
     <mergeCell ref="Z70:AD72"/>
-    <mergeCell ref="AE70:AG72"/>
-    <mergeCell ref="AH70:AJ72"/>
-    <mergeCell ref="AK70:AM72"/>
-    <mergeCell ref="AR72:AS72"/>
-    <mergeCell ref="K67:O69"/>
-    <mergeCell ref="Z67:AD69"/>
-    <mergeCell ref="AE67:AG69"/>
-    <mergeCell ref="AH67:AJ69"/>
-    <mergeCell ref="AK67:AM69"/>
-    <mergeCell ref="AR69:AS69"/>
-    <mergeCell ref="B67:J69"/>
-    <mergeCell ref="AR63:AS63"/>
-    <mergeCell ref="B64:J66"/>
-    <mergeCell ref="K64:O66"/>
-    <mergeCell ref="Z64:AD66"/>
-    <mergeCell ref="AE64:AG66"/>
-    <mergeCell ref="AH64:AJ66"/>
-    <mergeCell ref="AK64:AM66"/>
-    <mergeCell ref="AR66:AS66"/>
-    <mergeCell ref="K61:O63"/>
-    <mergeCell ref="Z61:AD63"/>
-    <mergeCell ref="AE61:AG63"/>
-    <mergeCell ref="AH61:AJ63"/>
-    <mergeCell ref="AK61:AM63"/>
-    <mergeCell ref="B61:J63"/>
-    <mergeCell ref="AR57:AS57"/>
-    <mergeCell ref="B58:J60"/>
-    <mergeCell ref="K58:O60"/>
-    <mergeCell ref="Z58:AD60"/>
-    <mergeCell ref="AE58:AG60"/>
-    <mergeCell ref="AH58:AJ60"/>
-    <mergeCell ref="AK58:AM60"/>
-    <mergeCell ref="AR60:AS60"/>
-    <mergeCell ref="K55:O57"/>
-    <mergeCell ref="Z55:AD57"/>
-    <mergeCell ref="AE55:AG57"/>
-    <mergeCell ref="AH55:AJ57"/>
-    <mergeCell ref="AK55:AM57"/>
-    <mergeCell ref="B55:J57"/>
-    <mergeCell ref="AR51:AS51"/>
-    <mergeCell ref="B52:J54"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="Z52:AD54"/>
-    <mergeCell ref="AE52:AG54"/>
-    <mergeCell ref="AH52:AJ54"/>
-    <mergeCell ref="AK52:AM54"/>
-    <mergeCell ref="AR54:AS54"/>
-    <mergeCell ref="K49:O51"/>
-    <mergeCell ref="Z49:AD51"/>
-    <mergeCell ref="AE49:AG51"/>
-    <mergeCell ref="AH49:AJ51"/>
-    <mergeCell ref="AK49:AM51"/>
-    <mergeCell ref="B49:J51"/>
-    <mergeCell ref="AR45:AS45"/>
-    <mergeCell ref="B46:J48"/>
-    <mergeCell ref="K46:O48"/>
-    <mergeCell ref="Z46:AD48"/>
-    <mergeCell ref="AE46:AG48"/>
-    <mergeCell ref="AH46:AJ48"/>
-    <mergeCell ref="AK46:AM48"/>
-    <mergeCell ref="AR48:AS48"/>
-    <mergeCell ref="K43:O45"/>
-    <mergeCell ref="Z43:AD45"/>
-    <mergeCell ref="AE43:AG45"/>
-    <mergeCell ref="AH43:AJ45"/>
-    <mergeCell ref="AK43:AM45"/>
-    <mergeCell ref="B43:J45"/>
-    <mergeCell ref="AR39:AS39"/>
-    <mergeCell ref="B40:J42"/>
-    <mergeCell ref="K40:O42"/>
-    <mergeCell ref="Z40:AD42"/>
-    <mergeCell ref="AE40:AG42"/>
-    <mergeCell ref="AH40:AJ42"/>
-    <mergeCell ref="AK40:AM42"/>
-    <mergeCell ref="AR42:AS42"/>
-    <mergeCell ref="K37:O39"/>
-    <mergeCell ref="Z37:AD39"/>
-    <mergeCell ref="AE37:AG39"/>
-    <mergeCell ref="AH37:AJ39"/>
-    <mergeCell ref="AK37:AM39"/>
-    <mergeCell ref="B37:J39"/>
-    <mergeCell ref="AR33:AS33"/>
-    <mergeCell ref="B34:J36"/>
-    <mergeCell ref="K34:O36"/>
-    <mergeCell ref="Z34:AD36"/>
-    <mergeCell ref="AE34:AG36"/>
-    <mergeCell ref="AH34:AJ36"/>
-    <mergeCell ref="AK34:AM36"/>
-    <mergeCell ref="AR36:AS36"/>
-    <mergeCell ref="K31:O33"/>
-    <mergeCell ref="Z31:AD33"/>
-    <mergeCell ref="AE31:AG33"/>
-    <mergeCell ref="AH31:AJ33"/>
-    <mergeCell ref="AK31:AM33"/>
-    <mergeCell ref="B31:J33"/>
-    <mergeCell ref="AR27:AS27"/>
-    <mergeCell ref="B28:J30"/>
-    <mergeCell ref="K28:O30"/>
-    <mergeCell ref="Z28:AD30"/>
-    <mergeCell ref="AE28:AG30"/>
-    <mergeCell ref="AH28:AJ30"/>
-    <mergeCell ref="AK28:AM30"/>
-    <mergeCell ref="AR30:AS30"/>
-    <mergeCell ref="K25:O27"/>
-    <mergeCell ref="Z25:AD27"/>
-    <mergeCell ref="AE25:AG27"/>
-    <mergeCell ref="AH25:AJ27"/>
-    <mergeCell ref="AK25:AM27"/>
-    <mergeCell ref="B25:J27"/>
-    <mergeCell ref="AK19:AM21"/>
-    <mergeCell ref="AR21:AS21"/>
-    <mergeCell ref="B22:J24"/>
-    <mergeCell ref="K22:O24"/>
-    <mergeCell ref="Z22:AD24"/>
-    <mergeCell ref="AE22:AG24"/>
-    <mergeCell ref="AH22:AJ24"/>
-    <mergeCell ref="AK22:AM24"/>
-    <mergeCell ref="AR24:AS24"/>
-    <mergeCell ref="B19:J21"/>
-    <mergeCell ref="K19:O21"/>
-    <mergeCell ref="Z19:AD21"/>
-    <mergeCell ref="AE19:AG21"/>
-    <mergeCell ref="AH19:AJ21"/>
-    <mergeCell ref="AK13:AM15"/>
-    <mergeCell ref="AR15:AS15"/>
-    <mergeCell ref="B16:J18"/>
-    <mergeCell ref="K16:O18"/>
-    <mergeCell ref="Z16:AD18"/>
-    <mergeCell ref="AE16:AG18"/>
-    <mergeCell ref="AH16:AJ18"/>
-    <mergeCell ref="AK16:AM18"/>
-    <mergeCell ref="AR18:AS18"/>
-    <mergeCell ref="B13:J15"/>
-    <mergeCell ref="K13:O15"/>
-    <mergeCell ref="Z13:AD15"/>
-    <mergeCell ref="AE13:AG15"/>
-    <mergeCell ref="AH13:AJ15"/>
-    <mergeCell ref="R1:AK3"/>
-    <mergeCell ref="B10:J12"/>
-    <mergeCell ref="K10:O12"/>
-    <mergeCell ref="AP3:AV3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="B3:H5"/>
-    <mergeCell ref="Z10:AD12"/>
-    <mergeCell ref="AE10:AG12"/>
-    <mergeCell ref="AH10:AJ12"/>
-    <mergeCell ref="AK10:AM12"/>
-    <mergeCell ref="AR12:AS12"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="AK7:AM8"/>
-    <mergeCell ref="AR7:AS7"/>
-    <mergeCell ref="AY7:BA8"/>
-    <mergeCell ref="AT8:AX9"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="AN9:AQ9"/>
-    <mergeCell ref="B7:J8"/>
-    <mergeCell ref="K7:O8"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="Z7:AD8"/>
-    <mergeCell ref="AE7:AG8"/>
-    <mergeCell ref="AH7:AJ8"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0.39370078740157499" top="0.59055118110236204" bottom="0.59055118110236204" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>